--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10616" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA90CF6C-F6FD-46CE-803D-99114D54F3FC}"/>
+  <xr:revisionPtr revIDLastSave="10664" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00FC85C5-DEF2-45C8-A85E-BEDBA7FFA362}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="2019" sheetId="26" r:id="rId8"/>
     <sheet name="2020" sheetId="27" r:id="rId9"/>
     <sheet name="2021" sheetId="28" r:id="rId10"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId11"/>
-    <sheet name="YTD Wins-Losses" sheetId="36" r:id="rId12"/>
-    <sheet name="Winning Percentile Range" sheetId="37" r:id="rId13"/>
+    <sheet name="2022" sheetId="38" r:id="rId11"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId12"/>
+    <sheet name="YTD Wins-Losses" sheetId="39" r:id="rId13"/>
+    <sheet name="Winning Percentile Range" sheetId="40" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="600">
   <si>
     <t>ROUND</t>
   </si>
@@ -1839,6 +1840,12 @@
   </si>
   <si>
     <t>2-6 6-0 2-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>7-6(1) 6-1</t>
   </si>
 </sst>
 </file>
@@ -1978,16 +1985,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="lv-LV" b="1"/>
+              <a:rPr lang="lv-LV" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Jeļena Ostapenko</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t> (LATVIA): YTD</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Wins-Losses</a:t>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> (LATVIA): YTD Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2055,10 +2062,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2089,15 +2096,18 @@
                 <c:pt idx="9">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$11</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -2128,12 +2138,15 @@
                 <c:pt idx="9">
                   <c:v>32</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-848E-41BA-9CF4-425CD368C40F}"/>
+              <c16:uniqueId val="{00000000-611C-453D-A8CA-307C53759205}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2163,10 +2176,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2197,15 +2210,18 @@
                 <c:pt idx="9">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$11</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2236,12 +2252,15 @@
                 <c:pt idx="9">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-848E-41BA-9CF4-425CD368C40F}"/>
+              <c16:uniqueId val="{00000001-611C-453D-A8CA-307C53759205}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2255,11 +2274,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="930830592"/>
-        <c:axId val="930832256"/>
+        <c:axId val="1497912079"/>
+        <c:axId val="1497910831"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="930830592"/>
+        <c:axId val="1497912079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,7 +2376,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="930832256"/>
+        <c:crossAx val="1497910831"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2365,7 +2384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="930832256"/>
+        <c:axId val="1497910831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2471,7 +2490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="930830592"/>
+        <c:crossAx val="1497912079"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2591,7 +2610,7 @@
               </a:rPr>
               <a:t> (LATVIA): Winning Percentile Range</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
+            <a:endParaRPr lang="en-US" sz="1100">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -2687,10 +2706,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2721,15 +2740,18 @@
                 <c:pt idx="9">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$11</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
@@ -2760,13 +2782,16 @@
                 <c:pt idx="9">
                   <c:v>0.40625</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BAE3-46FB-8B10-DCEF3265CFC9}"/>
+              <c16:uniqueId val="{00000000-4A84-40F4-86A9-8EA3297104C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2780,11 +2805,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1190752880"/>
-        <c:axId val="1552587200"/>
+        <c:axId val="1459431999"/>
+        <c:axId val="1459432415"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1190752880"/>
+        <c:axId val="1459431999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,7 +2907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1552587200"/>
+        <c:crossAx val="1459432415"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2890,7 +2915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1552587200"/>
+        <c:axId val="1459432415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2958,6 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>PERCENTAGE</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2997,7 +3021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1190752880"/>
+        <c:crossAx val="1459431999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4172,7 +4196,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DAE199D9-D0E6-449D-8528-60B81954F5BC}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C6F9E990-18E8-4633-9B29-A8AD058FE148}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4184,10 +4208,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4538391D-28F9-41FF-BF99-86FA56153DCC}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CD1A6610-889A-4392-BC0D-7FFE24FE6428}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4204,7 +4228,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFD10AA-174E-477C-9013-8508269CB97D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9AD609-CF51-491A-A64D-F1A3E89ED053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4237,7 +4261,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947E1E5D-E991-414E-97B5-CEF0844B4CAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07FEB6B3-08E8-4F57-B474-DF0EC1B737CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5812,14 +5836,95 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F715FBED-8F6F-452A-A20F-260B515EE135}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6037,7 +6142,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ref="F10:F11" si="1">(D10-E10)/D10</f>
+        <f t="shared" ref="F10:F12" si="1">(D10-E10)/D10</f>
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -6063,57 +6168,78 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
-        <f>SUM(B2:B11)</f>
-        <v>179</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>275</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="2"/>
-        <v>167</v>
-      </c>
-      <c r="F12" s="7">
-        <f>(D12-E12)/D12</f>
-        <v>0.3927272727272727</v>
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
-        <f>AVERAGE(B2:B11)</f>
-        <v>17.899999999999999</v>
+        <f>SUM(B2:B12)</f>
+        <v>180</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:E13" si="3">AVERAGE(C2:C11)</f>
-        <v>0.4</v>
+        <f>SUM(C2:C12)</f>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="3"/>
-        <v>27.5</v>
+        <f>SUM(D2:D12)</f>
+        <v>275</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="3"/>
-        <v>16.7</v>
+        <f>SUM(E2:E12)</f>
+        <v>168</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.39272727272727276</v>
+        <v>0.3890909090909091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(B2:B12)</f>
+        <v>16.363636363636363</v>
+      </c>
+      <c r="C14" s="2">
+        <f>AVERAGE(C2:C12)</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE(D2:D12)</f>
+        <v>25</v>
+      </c>
+      <c r="E14" s="2">
+        <f>AVERAGE(E2:E12)</f>
+        <v>15.272727272727273</v>
+      </c>
+      <c r="F14" s="7">
+        <f>(D14-E14)/D14</f>
+        <v>0.38909090909090904</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:F11">
+  <conditionalFormatting sqref="F6:F12">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10664" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00FC85C5-DEF2-45C8-A85E-BEDBA7FFA362}"/>
+  <xr:revisionPtr revIDLastSave="10680" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0BF4646-E829-4760-8370-BB569F7D5294}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="604">
   <si>
     <t>ROUND</t>
   </si>
@@ -1545,9 +1545,6 @@
     <t>Taylor Townsend (USA)</t>
   </si>
   <si>
-    <t>Daria Gavrilova (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>Magdaléna Rybáriková (SLOVAKIA)</t>
   </si>
   <si>
@@ -1846,6 +1843,21 @@
   </si>
   <si>
     <t>7-6(1) 6-1</t>
+  </si>
+  <si>
+    <t>6-7(7) 6-4 6-1</t>
+  </si>
+  <si>
+    <t>Alison Riske (USA)</t>
+  </si>
+  <si>
+    <t>6-4 2-6 6-4</t>
+  </si>
+  <si>
+    <t>Dasha Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>2-6 6-4 6-4</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2151,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2253,7 +2265,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4957,7 +4969,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E72" activeCellId="18" sqref="E4 E6 E9 E12 E15 E19 E24 E27 E32 E34 E37 E47 E49 E51 E55 E64 E61 E70 E72"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5007,7 +5019,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5015,7 +5027,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -5035,7 +5047,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5137,7 +5149,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -5151,13 +5163,13 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>559</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>560</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5172,13 +5184,13 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
+        <v>561</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>562</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5192,7 +5204,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5211,19 +5223,19 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
+        <v>565</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
         <v>566</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5257,7 +5269,7 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5271,7 +5283,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -5353,7 +5365,7 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5401,13 +5413,13 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
+        <v>570</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
         <v>571</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5441,7 +5453,7 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5455,7 +5467,7 @@
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5463,7 +5475,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -5497,7 +5509,7 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -5517,7 +5529,7 @@
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5531,7 +5543,7 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5551,7 +5563,7 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5565,7 +5577,7 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -5585,7 +5597,7 @@
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -5605,7 +5617,7 @@
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -5624,7 +5636,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -5633,7 +5645,7 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -5647,13 +5659,13 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>581</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>582</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -5661,7 +5673,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -5675,13 +5687,13 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
+        <v>585</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
         <v>586</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5689,18 +5701,18 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -5709,7 +5721,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -5723,7 +5735,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
@@ -5734,7 +5746,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -5743,7 +5755,7 @@
         <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -5757,7 +5769,7 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -5771,7 +5783,7 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
@@ -5785,7 +5797,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
@@ -5805,7 +5817,7 @@
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -5819,13 +5831,13 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
+        <v>595</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
         <v>596</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -5840,10 +5852,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5853,7 +5865,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5887,13 +5899,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>598</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5908,6 +5920,40 @@
       </c>
       <c r="D4" t="s">
         <v>390</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -5924,7 +5970,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6172,20 +6218,20 @@
         <v>2022</v>
       </c>
       <c r="B12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6194,7 +6240,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6202,15 +6248,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.3890909090909091</v>
+        <v>0.38989169675090252</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6219,7 +6265,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>16.363636363636363</v>
+        <v>16.454545454545453</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6227,15 +6273,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>25</v>
+        <v>25.181818181818183</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.272727272727273</v>
+        <v>15.363636363636363</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.38909090909090904</v>
+        <v>0.38989169675090257</v>
       </c>
     </row>
   </sheetData>
@@ -9755,7 +9801,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -10647,8 +10693,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10845,7 +10891,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -11360,7 +11406,7 @@
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>499</v>
+        <v>602</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -11380,7 +11426,7 @@
         <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
@@ -11405,7 +11451,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -11414,13 +11460,13 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
+        <v>501</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
         <v>502</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -11528,7 +11574,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11548,7 +11594,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11567,7 +11613,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -11579,7 +11625,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11599,7 +11645,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11638,7 +11684,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -11721,7 +11767,7 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11740,7 +11786,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -11749,24 +11795,24 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
+        <v>510</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
         <v>511</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -11803,7 +11849,7 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11857,7 +11903,7 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11877,7 +11923,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11891,7 +11937,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -11925,7 +11971,7 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -11959,7 +12005,7 @@
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -11973,7 +12019,7 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11998,7 +12044,7 @@
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
@@ -12055,7 +12101,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -12081,7 +12127,7 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12101,7 +12147,7 @@
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -12109,7 +12155,7 @@
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -12123,7 +12169,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -12134,7 +12180,7 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -12143,13 +12189,13 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
+        <v>526</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
         <v>527</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -12157,7 +12203,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
@@ -12197,13 +12243,13 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12223,7 +12269,7 @@
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -12231,7 +12277,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>14</v>
@@ -12251,7 +12297,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -12271,7 +12317,7 @@
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -12279,7 +12325,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -12299,7 +12345,7 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -12313,12 +12359,12 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
@@ -12327,13 +12373,13 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
+        <v>539</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -12341,7 +12387,7 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
@@ -12355,7 +12401,7 @@
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
@@ -12369,7 +12415,7 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
@@ -12383,7 +12429,7 @@
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
@@ -12451,7 +12497,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -12476,7 +12522,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -12488,18 +12534,18 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12567,7 +12613,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12581,7 +12627,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -12592,7 +12638,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -12621,7 +12667,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12635,7 +12681,7 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12677,7 +12723,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -12688,7 +12734,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10680" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0BF4646-E829-4760-8370-BB569F7D5294}"/>
+  <xr:revisionPtr revIDLastSave="10783" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0826DA80-1ACB-4608-A1B6-69B7C6D41AD7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="616">
   <si>
     <t>ROUND</t>
   </si>
@@ -1858,6 +1858,42 @@
   </si>
   <si>
     <t>2-6 6-4 6-4</t>
+  </si>
+  <si>
+    <t>Wang Xinyu (CHINA)</t>
+  </si>
+  <si>
+    <t>Aliaksandra Sasnovich (BELARUS)</t>
+  </si>
+  <si>
+    <t>7-6(5) 4-6 6-3</t>
+  </si>
+  <si>
+    <t>Anett Kontaveit (ESTONIA)</t>
+  </si>
+  <si>
+    <t>4-6 6-1 7-6(4)</t>
+  </si>
+  <si>
+    <t>Simona Halep (ROMANIA)</t>
+  </si>
+  <si>
+    <t>5-7 7-5 7-6(11)</t>
+  </si>
+  <si>
+    <t>2-6 7-6(0) 6-0</t>
+  </si>
+  <si>
+    <t>Veronika Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Amanda Anisimova (USA)</t>
+  </si>
+  <si>
+    <t>7-5 7-6(7)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(0)</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2187,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,7 +2301,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2795,7 +2831,7 @@
                   <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,7 +4259,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CD1A6610-889A-4392-BC0D-7FFE24FE6428}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4968,8 +5004,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5852,20 +5888,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" activeCellId="7" sqref="A2 A4 A8 A13 A19 A25 A27 A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5954,6 +5990,268 @@
       </c>
       <c r="F6" t="s">
         <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>604</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>595</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>605</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>609</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>613</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>607</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>593</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>592</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>592</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5969,8 +6267,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6218,20 +6516,20 @@
         <v>2022</v>
       </c>
       <c r="B12" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E12" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6240,23 +6538,23 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.38989169675090252</v>
+        <v>0.40138408304498269</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6265,23 +6563,23 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>16.454545454545453</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
-        <v>0.36363636363636365</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>25.181818181818183</v>
+        <v>26.272727272727273</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.363636363636363</v>
+        <v>15.727272727272727</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.38989169675090257</v>
+        <v>0.40138408304498274</v>
       </c>
     </row>
   </sheetData>
@@ -9567,8 +9865,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10693,8 +10991,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11483,8 +11781,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12452,8 +12750,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10783" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0826DA80-1ACB-4608-A1B6-69B7C6D41AD7}"/>
+  <xr:revisionPtr revIDLastSave="10788" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD797465-BCB8-4694-901D-3F97ABAC6819}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="618">
   <si>
     <t>ROUND</t>
   </si>
@@ -1894,6 +1894,12 @@
   </si>
   <si>
     <t>6-3 7-6(0)</t>
+  </si>
+  <si>
+    <t>Ekaterina Alexandrova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-2 4-6 6-4</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2307,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2831,7 +2837,7 @@
                   <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5890,8 +5896,8 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" activeCellId="7" sqref="A2 A4 A8 A13 A19 A25 A27 A29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E29" activeCellId="6" sqref="E2 E6 E11 E23 E25 E27 E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6253,6 +6259,18 @@
       <c r="B29" t="s">
         <v>33</v>
       </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>616</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>617</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6268,7 +6286,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6525,11 +6543,11 @@
         <v>14</v>
       </c>
       <c r="E12" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6550,11 +6568,11 @@
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.40138408304498269</v>
+        <v>0.39792387543252594</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6575,11 +6593,11 @@
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.727272727272727</v>
+        <v>15.818181818181818</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.40138408304498274</v>
+        <v>0.39792387543252594</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10788" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD797465-BCB8-4694-901D-3F97ABAC6819}"/>
+  <xr:revisionPtr revIDLastSave="10791" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D755018E-1156-4B05-953E-69FF287B21A1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="618">
   <si>
     <t>ROUND</t>
   </si>
@@ -5894,10 +5894,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" activeCellId="6" sqref="E2 E6 E11 E23 E25 E27 E29"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6272,6 +6272,14 @@
         <v>617</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -6286,7 +6294,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6534,7 +6542,7 @@
         <v>2022</v>
       </c>
       <c r="B12" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -6556,7 +6564,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6581,7 +6589,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>17</v>
+        <v>17.09090909090909</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10791" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D755018E-1156-4B05-953E-69FF287B21A1}"/>
+  <xr:revisionPtr revIDLastSave="10852" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C57CB4C6-726B-42E8-8F1A-6100CC031407}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="626">
   <si>
     <t>ROUND</t>
   </si>
@@ -1900,6 +1900,30 @@
   </si>
   <si>
     <t>6-2 4-6 6-4</t>
+  </si>
+  <si>
+    <t>Lauren Davis (USA)</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti (ITALY)</t>
+  </si>
+  <si>
+    <t>Rebecca Marino (CANADA)</t>
+  </si>
+  <si>
+    <t>Dayana Yastremska (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Madison Keys (USA)</t>
+  </si>
+  <si>
+    <t>6-3 RETIRED</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Camila Giorgi (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -2193,7 +2217,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2307,7 +2331,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2837,7 +2861,7 @@
                   <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5010,8 +5034,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5894,10 +5918,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E43" activeCellId="10" sqref="E2 E6 E11 E23 E25 E27 E29 E31 E34 E37 E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6279,6 +6303,176 @@
       <c r="B31" t="s">
         <v>33</v>
       </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>618</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>619</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>583</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>620</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>621</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>622</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>624</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>625</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>360</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6294,7 +6488,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6542,20 +6736,20 @@
         <v>2022</v>
       </c>
       <c r="B12" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E12" s="9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6564,7 +6758,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6572,15 +6766,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.39792387543252594</v>
+        <v>0.39661016949152544</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6589,7 +6783,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>17.09090909090909</v>
+        <v>17.363636363636363</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6597,15 +6791,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>26.272727272727273</v>
+        <v>26.818181818181817</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.818181818181818</v>
+        <v>16.181818181818183</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.39792387543252594</v>
+        <v>0.39661016949152533</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10852" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C57CB4C6-726B-42E8-8F1A-6100CC031407}"/>
+  <xr:revisionPtr revIDLastSave="10927" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA47516-AF0B-4E56-9621-CFDFB02CFCB6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="643">
   <si>
     <t>ROUND</t>
   </si>
@@ -1924,6 +1924,57 @@
   </si>
   <si>
     <t>Camila Giorgi (ITALY)</t>
+  </si>
+  <si>
+    <t>Yanina Wickmayer (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Irina-Camelia Begu (ROMANIA)</t>
+  </si>
+  <si>
+    <t>3-6 6-1 6-1</t>
+  </si>
+  <si>
+    <t>Tatjana Maria (GERMANY)</t>
+  </si>
+  <si>
+    <t>5-7 7-5 7-5</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>7-6(2) 0-6 7-5</t>
+  </si>
+  <si>
+    <t>CINCINNATI OPEN</t>
+  </si>
+  <si>
+    <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>Boyoung Jeong (SOUTH KOREA)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 7-6(2)</t>
+  </si>
+  <si>
+    <t>Anastasia Gasanova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-3 5-7 7-5</t>
+  </si>
+  <si>
+    <t>Victoria Jiménez Kasintseva (ANDORRA)</t>
+  </si>
+  <si>
+    <t>Emma Raducanu (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 3-0 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -1999,17 +2050,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2217,7 +2267,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,7 +2381,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2861,7 +2911,7 @@
                   <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45</c:v>
+                  <c:v>0.44827586206896552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5918,10 +5968,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E43" activeCellId="10" sqref="E2 E6 E11 E23 E25 E27 E29 E31 E34 E37 E43"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5929,9 +5979,9 @@
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6472,6 +6522,218 @@
       </c>
       <c r="D45" t="s">
         <v>251</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>626</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>627</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>629</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>631</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>624</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>600</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>633</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>634</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>622</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s">
+        <v>635</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>452</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>636</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>638</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>640</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>641</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>616</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6522,19 +6784,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2">
         <v>2012</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2">
         <v>7</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="9">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="3">
@@ -6543,19 +6805,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3">
         <v>2013</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3">
         <v>16</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" s="3">
@@ -6564,19 +6826,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4">
         <v>2014</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>17</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>42</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4">
         <v>14</v>
       </c>
       <c r="F4" s="3">
@@ -6585,19 +6847,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5">
         <v>2015</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>20</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>44</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5">
         <v>19</v>
       </c>
       <c r="F5" s="3">
@@ -6609,16 +6871,16 @@
       <c r="A6">
         <v>2016</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>28</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>20</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6">
         <v>28</v>
       </c>
       <c r="F6" s="3">
@@ -6630,16 +6892,16 @@
       <c r="A7">
         <v>2017</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>21</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>48</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7">
         <v>20</v>
       </c>
       <c r="F7" s="3">
@@ -6651,16 +6913,16 @@
       <c r="A8">
         <v>2018</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>21</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>23</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
         <v>21</v>
       </c>
       <c r="F8" s="3">
@@ -6672,16 +6934,16 @@
       <c r="A9">
         <v>2019</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>29</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>27</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9">
         <v>27</v>
       </c>
       <c r="F9" s="3">
@@ -6693,16 +6955,16 @@
       <c r="A10">
         <v>2020</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10">
         <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10">
         <v>8</v>
       </c>
       <c r="F10" s="3">
@@ -6714,16 +6976,16 @@
       <c r="A11">
         <v>2021</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11">
         <v>21</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>32</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11">
         <v>19</v>
       </c>
       <c r="F11" s="3">
@@ -6735,21 +6997,21 @@
       <c r="A12">
         <v>2022</v>
       </c>
-      <c r="B12" s="9">
-        <v>12</v>
+      <c r="B12">
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="9">
-        <v>20</v>
-      </c>
-      <c r="E12" s="9">
-        <v>11</v>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.44827586206896552</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6758,7 +7020,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6766,15 +7028,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.39661016949152544</v>
+        <v>0.39802631578947367</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6783,7 +7045,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>17.363636363636363</v>
+        <v>17.818181818181817</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6791,15 +7053,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>26.818181818181817</v>
+        <v>27.636363636363637</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>16.181818181818183</v>
+        <v>16.636363636363637</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.39661016949152533</v>
+        <v>0.39802631578947367</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10927" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA47516-AF0B-4E56-9621-CFDFB02CFCB6}"/>
+  <xr:revisionPtr revIDLastSave="10961" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BAB8F78-70F5-4BB9-A92C-5F0F63DFB2C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="2021" sheetId="28" r:id="rId10"/>
     <sheet name="2022" sheetId="38" r:id="rId11"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId12"/>
-    <sheet name="YTD Wins-Losses" sheetId="39" r:id="rId13"/>
+    <sheet name="Wins-Losses" sheetId="39" r:id="rId13"/>
     <sheet name="Winning Percentile Range" sheetId="40" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="649">
   <si>
     <t>ROUND</t>
   </si>
@@ -1278,9 +1278,6 @@
     <t>6-4 2-6 7-6(3)</t>
   </si>
   <si>
-    <t>VOLVO CAR OPEN</t>
-  </si>
-  <si>
     <t>Fanny Stollár (HUNGARY)</t>
   </si>
   <si>
@@ -1975,6 +1972,27 @@
   </si>
   <si>
     <t>4-6 6-3 3-0 RETIRED</t>
+  </si>
+  <si>
+    <t>TALLINN OPEN</t>
+  </si>
+  <si>
+    <t>Kaia Kanepi (ESTONIA)</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-0</t>
+  </si>
+  <si>
+    <t>GUADALAJARA OPEN</t>
+  </si>
+  <si>
+    <t>Genie Bouchard (CANADA)</t>
+  </si>
+  <si>
+    <t>7-5 2-6 6-1</t>
+  </si>
+  <si>
+    <t>CHARLESTON OPEN</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2140,7 @@
               <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> (LATVIA): YTD Wins-Losses</a:t>
+              <a:t> (LATVIA): Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2267,7 +2285,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,7 +2399,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,7 +2846,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -2911,7 +2928,7 @@
                   <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44827586206896552</c:v>
+                  <c:v>0.38709677419354838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4412,6 +4429,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5135,7 +5156,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5143,7 +5164,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -5157,13 +5178,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5265,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -5279,13 +5300,13 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>558</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>559</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5300,13 +5321,13 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
+        <v>560</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>561</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5320,7 +5341,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5328,7 +5349,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -5339,24 +5360,24 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
+        <v>564</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
         <v>565</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -5385,7 +5406,7 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5399,7 +5420,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -5413,7 +5434,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -5433,7 +5454,7 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -5461,13 +5482,13 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5481,7 +5502,7 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5529,13 +5550,13 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
+        <v>569</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
         <v>570</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5569,7 +5590,7 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5583,7 +5604,7 @@
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5591,7 +5612,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -5625,7 +5646,7 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -5645,7 +5666,7 @@
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5659,7 +5680,7 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5679,7 +5700,7 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5693,7 +5714,7 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -5713,7 +5734,7 @@
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -5727,13 +5748,13 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -5741,7 +5762,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -5752,7 +5773,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -5761,7 +5782,7 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -5775,13 +5796,13 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>580</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>581</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -5789,7 +5810,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -5803,13 +5824,13 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
+        <v>584</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
         <v>585</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5817,18 +5838,18 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -5837,7 +5858,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -5851,7 +5872,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
@@ -5862,7 +5883,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -5871,7 +5892,7 @@
         <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -5885,7 +5906,7 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -5899,7 +5920,7 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
@@ -5913,7 +5934,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
@@ -5933,7 +5954,7 @@
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -5947,13 +5968,13 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
+        <v>594</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
         <v>595</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -5968,10 +5989,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58:E61"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E70" activeCellId="18" sqref="E2 E6 E11 E23 E25 E27 E29 E31 E34 E37 E43 E48 E51 E54 E56 E62 E64 E66 E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6015,13 +6036,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>597</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6041,7 +6062,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6049,13 +6070,13 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>600</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6069,7 +6090,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6083,7 +6104,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -6097,7 +6118,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -6111,13 +6132,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
+        <v>604</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>605</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6125,7 +6146,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -6159,13 +6180,13 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6179,7 +6200,7 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6187,13 +6208,13 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6201,7 +6222,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -6235,13 +6256,13 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6277,7 +6298,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -6288,7 +6309,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -6297,13 +6318,13 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6317,13 +6338,13 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6337,13 +6358,13 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
+        <v>615</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
         <v>616</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6357,7 +6378,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -6377,7 +6398,7 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -6391,13 +6412,13 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6411,13 +6432,13 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6425,7 +6446,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -6459,13 +6480,13 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>621</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
         <v>622</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6473,7 +6494,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -6487,7 +6508,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -6535,7 +6556,7 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -6549,13 +6570,13 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
+        <v>626</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>627</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6563,18 +6584,18 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
+        <v>628</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
         <v>629</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -6583,7 +6604,7 @@
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -6597,18 +6618,18 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -6617,7 +6638,7 @@
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -6631,7 +6652,7 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -6651,7 +6672,7 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -6662,7 +6683,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -6671,13 +6692,13 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
+        <v>635</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>636</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6685,13 +6706,13 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
+        <v>637</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
         <v>638</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6699,7 +6720,7 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -6713,13 +6734,13 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
+        <v>640</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
         <v>641</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6727,13 +6748,101 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>642</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>643</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>554</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>604</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>645</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" t="s">
+        <v>617</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>646</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>611</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6749,7 +6858,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -6998,20 +7107,20 @@
         <v>2022</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>0.44827586206896552</v>
+        <v>0.38709677419354838</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7020,7 +7129,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -7028,15 +7137,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.39802631578947367</v>
+        <v>0.39215686274509803</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7045,7 +7154,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>17.818181818181817</v>
+        <v>18.09090909090909</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -7053,15 +7162,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>27.636363636363637</v>
+        <v>27.818181818181817</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>16.636363636363637</v>
+        <v>16.90909090909091</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.39802631578947367</v>
+        <v>0.39215686274509798</v>
       </c>
     </row>
   </sheetData>
@@ -10347,8 +10456,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10581,7 +10690,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -10635,7 +10744,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>410</v>
+        <v>648</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -10658,13 +10767,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10672,13 +10781,13 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10706,7 +10815,7 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10725,7 +10834,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -10734,13 +10843,13 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -10748,7 +10857,7 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -10762,13 +10871,13 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10776,13 +10885,13 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10816,7 +10925,7 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10830,7 +10939,7 @@
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -10858,13 +10967,13 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
+        <v>427</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
         <v>428</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -10872,13 +10981,13 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10886,7 +10995,7 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -10968,7 +11077,7 @@
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -10982,7 +11091,7 @@
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10990,13 +11099,13 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -11004,13 +11113,13 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11030,7 +11139,7 @@
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -11038,13 +11147,13 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
+        <v>436</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
         <v>437</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11064,7 +11173,7 @@
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -11072,13 +11181,13 @@
         <v>40</v>
       </c>
       <c r="D58" t="s">
+        <v>440</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>441</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -11092,7 +11201,7 @@
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -11100,13 +11209,13 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -11114,7 +11223,7 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -11134,13 +11243,13 @@
         <v>40</v>
       </c>
       <c r="D63" t="s">
+        <v>446</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
         <v>447</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11154,7 +11263,7 @@
         <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -11180,7 +11289,7 @@
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -11188,7 +11297,7 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
@@ -11213,7 +11322,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
@@ -11228,7 +11337,7 @@
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -11264,7 +11373,7 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
@@ -11278,7 +11387,7 @@
         <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -11298,13 +11407,13 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
+        <v>455</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
         <v>456</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -11318,7 +11427,7 @@
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -11332,7 +11441,7 @@
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -11340,7 +11449,7 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
@@ -11374,13 +11483,13 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
+        <v>459</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
         <v>460</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -11388,7 +11497,7 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>13</v>
@@ -11402,7 +11511,7 @@
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>14</v>
@@ -11413,13 +11522,13 @@
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B87" t="s">
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D87" t="s">
         <v>54</v>
@@ -11433,21 +11542,21 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
+        <v>462</v>
+      </c>
+      <c r="D88" t="s">
+        <v>445</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
         <v>463</v>
-      </c>
-      <c r="D88" t="s">
-        <v>446</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D89" t="s">
         <v>373</v>
@@ -11473,7 +11582,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -11509,7 +11618,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -11529,7 +11638,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -11538,13 +11647,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>467</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11558,7 +11667,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -11572,7 +11681,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -11592,7 +11701,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11606,13 +11715,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11640,7 +11749,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -11666,12 +11775,12 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -11686,7 +11795,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11694,7 +11803,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -11728,13 +11837,13 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11748,7 +11857,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11756,13 +11865,13 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -11776,7 +11885,7 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11784,18 +11893,18 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -11824,7 +11933,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11838,7 +11947,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -11858,7 +11967,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -11872,13 +11981,13 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -11886,13 +11995,13 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
+        <v>485</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
         <v>486</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11926,7 +12035,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -11940,7 +12049,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -11974,7 +12083,7 @@
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -12044,7 +12153,7 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -12064,13 +12173,13 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12084,13 +12193,13 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
+        <v>493</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
         <v>494</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12110,7 +12219,7 @@
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -12118,13 +12227,13 @@
         <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -12132,7 +12241,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -12143,7 +12252,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -12186,7 +12295,7 @@
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -12206,7 +12315,7 @@
         <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
@@ -12231,7 +12340,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -12240,13 +12349,13 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
+        <v>500</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
         <v>501</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -12263,8 +12372,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12299,7 +12408,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -12328,7 +12437,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -12348,13 +12457,13 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12374,7 +12483,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12393,7 +12502,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -12405,7 +12514,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12419,13 +12528,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12433,7 +12542,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -12453,7 +12562,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -12464,7 +12573,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -12473,7 +12582,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -12493,7 +12602,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12518,7 +12627,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>410</v>
+        <v>648</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -12541,13 +12650,13 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12566,7 +12675,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -12575,24 +12684,24 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
+        <v>509</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
         <v>510</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -12614,7 +12723,7 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -12629,7 +12738,7 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12677,13 +12786,13 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12703,7 +12812,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12717,7 +12826,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -12731,7 +12840,7 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -12745,13 +12854,13 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -12765,7 +12874,7 @@
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -12779,13 +12888,13 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -12799,7 +12908,7 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12824,7 +12933,7 @@
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
@@ -12881,7 +12990,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -12907,7 +13016,7 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12921,13 +13030,13 @@
         <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -12935,7 +13044,7 @@
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -12949,7 +13058,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -12960,7 +13069,7 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -12969,13 +13078,13 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
+        <v>525</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
         <v>526</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -12983,7 +13092,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
@@ -12994,7 +13103,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -13023,13 +13132,13 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13049,7 +13158,7 @@
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -13057,7 +13166,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>14</v>
@@ -13077,7 +13186,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -13091,13 +13200,13 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -13105,7 +13214,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -13125,7 +13234,7 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -13139,12 +13248,12 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
@@ -13153,13 +13262,13 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
+        <v>538</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>539</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -13167,13 +13276,13 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
@@ -13181,7 +13290,7 @@
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
@@ -13195,7 +13304,7 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
@@ -13209,7 +13318,7 @@
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
@@ -13232,7 +13341,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -13277,7 +13386,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -13297,12 +13406,12 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -13314,18 +13423,18 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13339,7 +13448,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -13373,7 +13482,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -13393,7 +13502,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13407,7 +13516,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -13418,7 +13527,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -13447,7 +13556,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -13461,7 +13570,7 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13503,7 +13612,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -13514,7 +13623,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -13523,7 +13632,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10961" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BAB8F78-70F5-4BB9-A92C-5F0F63DFB2C8}"/>
+  <xr:revisionPtr revIDLastSave="11042" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D6E9242-8E13-491E-BF6E-C40C71D427CE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -24,9 +24,8 @@
     <sheet name="2020" sheetId="27" r:id="rId9"/>
     <sheet name="2021" sheetId="28" r:id="rId10"/>
     <sheet name="2022" sheetId="38" r:id="rId11"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId12"/>
-    <sheet name="Wins-Losses" sheetId="39" r:id="rId13"/>
-    <sheet name="Winning Percentile Range" sheetId="40" r:id="rId14"/>
+    <sheet name="2023" sheetId="41" r:id="rId12"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="660">
   <si>
     <t>ROUND</t>
   </si>
@@ -1845,9 +1844,6 @@
     <t>6-7(7) 6-4 6-1</t>
   </si>
   <si>
-    <t>Alison Riske (USA)</t>
-  </si>
-  <si>
     <t>6-4 2-6 6-4</t>
   </si>
   <si>
@@ -1993,6 +1989,42 @@
   </si>
   <si>
     <t>CHARLESTON OPEN</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
+  </si>
+  <si>
+    <t>7-6(5) 5-7 6-0</t>
+  </si>
+  <si>
+    <t>3-6 6-2 7-6(9)</t>
+  </si>
+  <si>
+    <t>6-0 3-6 6-1</t>
+  </si>
+  <si>
+    <t>Sinja Kraus (AUSTRIA)</t>
+  </si>
+  <si>
+    <t>Tamira Paszek (AUSTRIA)</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 1</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 2</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Anna Bondár (HUNGARY)</t>
+  </si>
+  <si>
+    <t>Kateryna Baindl (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Elena Rybakina (KAZAKHSTAN)</t>
   </si>
 </sst>
 </file>
@@ -2068,7 +2100,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2078,6 +2110,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2095,2342 +2128,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="lv-LV" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Jeļena Ostapenko</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> (LATVIA): Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WINS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-611C-453D-A8CA-307C53759205}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LOSSES</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-611C-453D-A8CA-307C53759205}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1497912079"/>
-        <c:axId val="1497910831"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1497912079"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>YEAR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1497910831"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1497910831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF MATCHES</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1497912079"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="lv-LV" sz="1400" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Jeļena Ostapenko</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> (LATVIA): Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WINNING PERCENTILE RANGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56818181818181823</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6956521739130432E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.40625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.38709677419354838</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A84-40F4-86A9-8EA3297104C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1459431999"/>
-        <c:axId val="1459432415"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1459431999"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>YEAR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1459432415"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1459432415"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>PERCENTAGE</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1459431999"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C6F9E990-18E8-4633-9B29-A8AD058FE148}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CD1A6610-889A-4392-BC0D-7FFE24FE6428}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9AD609-CF51-491A-A64D-F1A3E89ED053}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07FEB6B3-08E8-4F57-B474-DF0EC1B737CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4739,17 +2436,17 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4769,7 +2466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -4789,7 +2486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4803,7 +2500,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -4823,7 +2520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4837,7 +2534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4851,7 +2548,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4865,7 +2562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -4885,7 +2582,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4899,7 +2596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4913,7 +2610,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4927,7 +2624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -4947,7 +2644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4967,7 +2664,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -4987,7 +2684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5001,7 +2698,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5015,7 +2712,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -5029,7 +2726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -5043,7 +2740,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -5063,7 +2760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -5077,7 +2774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5105,21 +2802,21 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5139,7 +2836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -5159,7 +2856,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5173,7 +2870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -5187,7 +2884,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5207,7 +2904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -5227,7 +2924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -5241,7 +2938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -5261,7 +2958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -5275,7 +2972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>354</v>
       </c>
@@ -5295,7 +2992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -5309,8 +3006,8 @@
         <v>559</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -5330,7 +3027,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>40</v>
       </c>
@@ -5344,7 +3041,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5358,7 +3055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>563</v>
       </c>
@@ -5375,7 +3072,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>415</v>
       </c>
@@ -5395,7 +3092,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5409,7 +3106,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -5429,7 +3126,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5443,7 +3140,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -5463,7 +3160,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -5477,7 +3174,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -5491,7 +3188,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5505,7 +3202,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -5525,7 +3222,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -5545,7 +3242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -5559,7 +3256,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -5579,7 +3276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5593,7 +3290,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -5607,7 +3304,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>16</v>
       </c>
@@ -5621,7 +3318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>17</v>
       </c>
@@ -5635,7 +3332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -5655,7 +3352,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>40</v>
       </c>
@@ -5669,7 +3366,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -5683,7 +3380,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -5703,7 +3400,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -5723,7 +3420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -5743,7 +3440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -5757,7 +3454,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -5771,7 +3468,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>537</v>
       </c>
@@ -5791,7 +3488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -5805,7 +3502,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -5819,7 +3516,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -5833,7 +3530,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -5847,7 +3544,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>554</v>
       </c>
@@ -5867,7 +3564,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -5881,7 +3578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>592</v>
       </c>
@@ -5901,7 +3598,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>12</v>
       </c>
@@ -5915,7 +3612,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -5929,7 +3626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -5943,7 +3640,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -5957,7 +3654,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -5989,23 +3686,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="E70" activeCellId="18" sqref="E2 E6 E11 E23 E25 E27 E29 E31 E34 E37 E43 E48 E51 E54 E56 E62 E64 E66 E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6025,7 +3722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -6045,7 +3742,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -6065,21 +3762,21 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>599</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -6090,10 +3787,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>354</v>
       </c>
@@ -6104,7 +3801,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -6113,7 +3810,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6127,26 +3824,26 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
+        <v>603</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>604</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -6155,7 +3852,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6175,7 +3872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -6186,10 +3883,10 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -6200,29 +3897,29 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -6231,7 +3928,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -6251,12 +3948,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -6265,7 +3962,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -6279,7 +3976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -6293,12 +3990,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -6307,7 +4004,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>592</v>
       </c>
@@ -6324,10 +4021,10 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -6344,10 +4041,10 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -6358,16 +4055,16 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
+        <v>614</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
         <v>615</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -6378,7 +4075,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -6387,7 +4084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -6398,7 +4095,7 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -6407,7 +4104,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>40</v>
       </c>
@@ -6421,7 +4118,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -6432,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -6441,12 +4138,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -6455,7 +4152,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -6475,26 +4172,26 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>620</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
         <v>621</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -6503,12 +4200,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -6517,7 +4214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>17</v>
       </c>
@@ -6531,7 +4228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -6551,12 +4248,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -6565,37 +4262,37 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="s">
+        <v>625</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>626</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="s">
+        <v>627</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
         <v>628</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>630</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -6604,7 +4301,7 @@
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -6613,23 +4310,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>599</v>
+        <v>648</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>631</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>632</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -6638,7 +4335,7 @@
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -6647,12 +4344,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -6661,7 +4358,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -6672,7 +4369,7 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -6681,7 +4378,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>451</v>
       </c>
@@ -6692,35 +4389,35 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
+        <v>634</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>635</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>11</v>
       </c>
       <c r="D59" t="s">
+        <v>636</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
         <v>637</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -6729,26 +4426,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="D61" t="s">
+        <v>639</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
         <v>640</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
@@ -6757,27 +4454,27 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>641</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
         <v>642</v>
       </c>
-      <c r="B64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
         <v>643</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>554</v>
       </c>
@@ -6788,7 +4485,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
@@ -6797,9 +4494,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
@@ -6808,7 +4505,7 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
@@ -6817,32 +4514,62 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" t="s">
+        <v>645</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
         <v>646</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F70" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>504</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" t="s">
+        <v>652</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="9"/>
+      <c r="D73" t="s">
+        <v>653</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -6852,27 +4579,209 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970538EE-321A-4AFC-8CD4-C243DDF233BF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" activeCellId="1" sqref="E2 E7:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>619</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>657</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>658</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>659</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="A1:A13 D1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6892,7 +4801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -6913,7 +4822,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -6934,7 +4843,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -6955,7 +4864,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -6976,7 +4885,7 @@
         <v>0.56818181818181823</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -6997,7 +4906,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -7018,7 +4927,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -7039,7 +4948,7 @@
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -7060,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -7077,11 +4986,11 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ref="F10:F12" si="1">(D10-E10)/D10</f>
+        <f t="shared" ref="F10:F13" si="1">(D10-E10)/D10</f>
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -7102,79 +5011,100 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>19</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>0.38709677419354838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+        <v>0.42424242424242425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
-        <f>SUM(B2:B12)</f>
-        <v>199</v>
-      </c>
-      <c r="C13" s="2">
-        <f>SUM(C2:C12)</f>
+      <c r="B14" s="2">
+        <f>SUM(B2:B13)</f>
+        <v>203</v>
+      </c>
+      <c r="C14" s="2">
+        <f>SUM(C2:C13)</f>
         <v>5</v>
       </c>
-      <c r="D13" s="2">
-        <f>SUM(D2:D12)</f>
-        <v>306</v>
-      </c>
-      <c r="E13" s="2">
-        <f>SUM(E2:E12)</f>
-        <v>186</v>
-      </c>
-      <c r="F13" s="7">
-        <f>(D13-E13)/D13</f>
-        <v>0.39215686274509803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="2">
-        <f>AVERAGE(B2:B12)</f>
-        <v>18.09090909090909</v>
-      </c>
-      <c r="C14" s="2">
-        <f>AVERAGE(C2:C12)</f>
-        <v>0.45454545454545453</v>
-      </c>
       <c r="D14" s="2">
-        <f>AVERAGE(D2:D12)</f>
-        <v>27.818181818181817</v>
+        <f>SUM(D2:D13)</f>
+        <v>313</v>
       </c>
       <c r="E14" s="2">
-        <f>AVERAGE(E2:E12)</f>
-        <v>16.90909090909091</v>
+        <f>SUM(E2:E13)</f>
+        <v>189</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.39215686274509798</v>
+        <v>0.3961661341853035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(B2:B13)</f>
+        <v>16.916666666666668</v>
+      </c>
+      <c r="C15" s="2">
+        <f>AVERAGE(C2:C13)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D15" s="2">
+        <f>AVERAGE(D2:D13)</f>
+        <v>26.083333333333332</v>
+      </c>
+      <c r="E15" s="2">
+        <f>AVERAGE(E2:E13)</f>
+        <v>15.75</v>
+      </c>
+      <c r="F15" s="7">
+        <f>(D15-E15)/D15</f>
+        <v>0.3961661341853035</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:F12">
+  <conditionalFormatting sqref="F6:F13">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -7208,17 +5138,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7238,7 +5168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -7258,7 +5188,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7272,7 +5202,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7286,7 +5216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7300,7 +5230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7314,7 +5244,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -7334,7 +5264,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -7348,7 +5278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -7368,7 +5298,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -7388,7 +5318,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -7402,7 +5332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -7416,7 +5346,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -7430,7 +5360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>174</v>
       </c>
@@ -7450,7 +5380,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -7464,7 +5394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -7484,7 +5414,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>21</v>
       </c>
@@ -7498,7 +5428,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -7518,7 +5448,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -7532,7 +5462,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -7546,7 +5476,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -7560,7 +5490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -7591,17 +5521,17 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7621,7 +5551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>189</v>
       </c>
@@ -7641,7 +5571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -7661,7 +5591,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -7675,7 +5605,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -7695,7 +5625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -7709,7 +5639,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7723,7 +5653,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -7737,7 +5667,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -7757,7 +5687,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -7771,7 +5701,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7785,7 +5715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -7799,7 +5729,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -7813,7 +5743,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -7833,7 +5763,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -7847,7 +5777,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -7861,7 +5791,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -7881,7 +5811,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7895,7 +5825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7909,7 +5839,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -7923,7 +5853,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -7937,7 +5867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>195</v>
       </c>
@@ -7957,7 +5887,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -7971,7 +5901,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -7985,7 +5915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -7999,7 +5929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>17</v>
       </c>
@@ -8013,7 +5943,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>224</v>
       </c>
@@ -8033,7 +5963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -8047,7 +5977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -8061,7 +5991,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -8075,7 +6005,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>228</v>
       </c>
@@ -8095,7 +6025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -8109,7 +6039,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -8123,7 +6053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -8137,7 +6067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>16</v>
       </c>
@@ -8151,7 +6081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>232</v>
       </c>
@@ -8171,7 +6101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -8185,7 +6115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>37</v>
       </c>
@@ -8199,7 +6129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>235</v>
       </c>
@@ -8219,7 +6149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -8233,7 +6163,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -8253,7 +6183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -8267,7 +6197,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8281,7 +6211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>242</v>
       </c>
@@ -8301,7 +6231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>21</v>
       </c>
@@ -8315,7 +6245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>245</v>
       </c>
@@ -8335,7 +6265,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>248</v>
       </c>
@@ -8355,7 +6285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -8369,7 +6299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -8383,7 +6313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -8403,7 +6333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -8417,7 +6347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -8431,7 +6361,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -8445,7 +6375,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -8459,7 +6389,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>257</v>
       </c>
@@ -8479,7 +6409,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>21</v>
       </c>
@@ -8493,7 +6423,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>37</v>
       </c>
@@ -8524,17 +6454,17 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8554,7 +6484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -8574,7 +6504,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8588,7 +6518,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -8608,7 +6538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -8622,7 +6552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -8636,7 +6566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -8650,7 +6580,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>271</v>
       </c>
@@ -8670,7 +6600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>21</v>
       </c>
@@ -8684,7 +6614,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -8698,7 +6628,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -8712,7 +6642,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -8726,7 +6656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -8740,7 +6670,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -8754,7 +6684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -8768,7 +6698,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>281</v>
       </c>
@@ -8788,7 +6718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -8802,7 +6732,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -8816,7 +6746,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -8830,7 +6760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -8844,7 +6774,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -8864,7 +6794,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -8878,7 +6808,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>37</v>
       </c>
@@ -8892,7 +6822,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>292</v>
       </c>
@@ -8912,7 +6842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -8926,7 +6856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -8940,7 +6870,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -8954,7 +6884,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -8974,7 +6904,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>300</v>
       </c>
@@ -8994,7 +6924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -9008,7 +6938,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>37</v>
       </c>
@@ -9022,7 +6952,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>304</v>
       </c>
@@ -9042,7 +6972,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -9056,7 +6986,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -9076,7 +7006,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>40</v>
       </c>
@@ -9090,7 +7020,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>307</v>
       </c>
@@ -9110,7 +7040,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -9124,7 +7054,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -9144,7 +7074,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>313</v>
       </c>
@@ -9164,7 +7094,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -9178,7 +7108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -9192,7 +7122,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>316</v>
       </c>
@@ -9212,7 +7142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -9226,7 +7156,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -9240,7 +7170,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -9254,7 +7184,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -9268,7 +7198,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>323</v>
       </c>
@@ -9288,7 +7218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -9302,7 +7232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -9322,7 +7252,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>21</v>
       </c>
@@ -9336,7 +7266,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>37</v>
       </c>
@@ -9350,7 +7280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>38</v>
       </c>
@@ -9364,7 +7294,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>40</v>
       </c>
@@ -9378,7 +7308,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>333</v>
       </c>
@@ -9398,7 +7328,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -9412,7 +7342,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -9426,7 +7356,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>16</v>
       </c>
@@ -9440,7 +7370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>17</v>
       </c>
@@ -9454,7 +7384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>235</v>
       </c>
@@ -9474,7 +7404,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>340</v>
       </c>
@@ -9494,7 +7424,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -9508,7 +7438,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>37</v>
       </c>
@@ -9522,7 +7452,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>143</v>
       </c>
@@ -9542,7 +7472,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>21</v>
       </c>
@@ -9573,17 +7503,17 @@
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9603,7 +7533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>346</v>
       </c>
@@ -9623,7 +7553,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -9637,7 +7567,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>350</v>
       </c>
@@ -9657,7 +7587,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -9677,7 +7607,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -9697,7 +7627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -9717,7 +7647,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -9731,7 +7661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -9751,7 +7681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -9765,7 +7695,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -9779,7 +7709,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -9793,7 +7723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -9807,7 +7737,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -9821,7 +7751,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>365</v>
       </c>
@@ -9841,7 +7771,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -9861,7 +7791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>367</v>
       </c>
@@ -9881,7 +7811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -9895,7 +7825,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -9909,7 +7839,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -9923,7 +7853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -9943,7 +7873,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -9963,7 +7893,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -9983,7 +7913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -9997,7 +7927,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -10011,7 +7941,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -10031,7 +7961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>375</v>
       </c>
@@ -10051,7 +7981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -10065,7 +7995,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -10085,7 +8015,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -10099,7 +8029,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -10113,7 +8043,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -10133,7 +8063,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -10147,7 +8077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -10167,7 +8097,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>383</v>
       </c>
@@ -10187,7 +8117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -10207,7 +8137,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>385</v>
       </c>
@@ -10227,7 +8157,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -10241,7 +8171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -10255,7 +8185,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -10275,7 +8205,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>124</v>
       </c>
@@ -10295,7 +8225,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -10309,7 +8239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>391</v>
       </c>
@@ -10329,7 +8259,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -10343,7 +8273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -10363,7 +8293,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>394</v>
       </c>
@@ -10383,7 +8313,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>395</v>
       </c>
@@ -10403,7 +8333,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>340</v>
       </c>
@@ -10423,7 +8353,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -10456,21 +8386,21 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10490,7 +8420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>346</v>
       </c>
@@ -10510,7 +8440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -10524,7 +8454,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -10538,7 +8468,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -10552,7 +8482,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -10572,7 +8502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>40</v>
       </c>
@@ -10586,7 +8516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -10600,7 +8530,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>354</v>
       </c>
@@ -10620,7 +8550,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -10640,7 +8570,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>406</v>
       </c>
@@ -10660,7 +8590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -10674,7 +8604,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -10688,7 +8618,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>592</v>
       </c>
@@ -10708,7 +8638,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>40</v>
       </c>
@@ -10722,7 +8652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -10742,9 +8672,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -10762,7 +8692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -10776,7 +8706,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -10790,7 +8720,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -10804,7 +8734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -10818,7 +8748,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -10832,7 +8762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>415</v>
       </c>
@@ -10852,7 +8782,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -10866,7 +8796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>37</v>
       </c>
@@ -10880,7 +8810,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -10894,7 +8824,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -10914,7 +8844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -10928,7 +8858,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -10942,7 +8872,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -10956,7 +8886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -10976,7 +8906,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -10990,7 +8920,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>40</v>
       </c>
@@ -11004,7 +8934,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -11018,7 +8948,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -11038,7 +8968,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>40</v>
       </c>
@@ -11052,7 +8982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -11066,7 +8996,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -11080,7 +9010,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -11094,7 +9024,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -11108,7 +9038,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -11122,7 +9052,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -11142,7 +9072,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -11156,7 +9086,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -11176,7 +9106,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>40</v>
       </c>
@@ -11190,7 +9120,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -11204,7 +9134,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -11218,7 +9148,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -11232,7 +9162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -11252,7 +9182,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -11272,7 +9202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -11292,7 +9222,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>40</v>
       </c>
@@ -11306,7 +9236,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -11320,7 +9250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>451</v>
       </c>
@@ -11340,7 +9270,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -11354,7 +9284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -11368,7 +9298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -11382,7 +9312,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>17</v>
       </c>
@@ -11396,7 +9326,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>394</v>
       </c>
@@ -11416,7 +9346,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -11430,7 +9360,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -11444,7 +9374,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -11458,7 +9388,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>395</v>
       </c>
@@ -11478,7 +9408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>11</v>
       </c>
@@ -11492,7 +9422,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>15</v>
       </c>
@@ -11506,7 +9436,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>16</v>
       </c>
@@ -11520,7 +9450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>461</v>
       </c>
@@ -11540,7 +9470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>462</v>
       </c>
@@ -11554,7 +9484,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>462</v>
       </c>
@@ -11586,17 +9516,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11616,7 +9546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>464</v>
       </c>
@@ -11636,7 +9566,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>465</v>
       </c>
@@ -11656,7 +9586,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -11676,7 +9606,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>40</v>
       </c>
@@ -11690,7 +9620,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -11704,7 +9634,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>354</v>
       </c>
@@ -11724,7 +9654,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -11738,7 +9668,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -11758,7 +9688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -11778,7 +9708,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>592</v>
       </c>
@@ -11798,7 +9728,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -11812,7 +9742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -11832,7 +9762,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -11846,7 +9776,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -11860,7 +9790,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -11874,7 +9804,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -11888,7 +9818,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -11902,7 +9832,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>415</v>
       </c>
@@ -11922,7 +9852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -11936,7 +9866,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -11956,7 +9886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -11976,7 +9906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -11990,7 +9920,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -12004,7 +9934,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -12024,7 +9954,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -12044,7 +9974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -12058,7 +9988,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -12072,7 +10002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -12092,7 +10022,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>40</v>
       </c>
@@ -12106,7 +10036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -12120,7 +10050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -12134,7 +10064,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -12148,7 +10078,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -12162,7 +10092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -12182,7 +10112,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -12202,7 +10132,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -12222,7 +10152,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>40</v>
       </c>
@@ -12236,7 +10166,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -12250,7 +10180,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>451</v>
       </c>
@@ -12270,7 +10200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -12284,7 +10214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>394</v>
       </c>
@@ -12295,7 +10225,7 @@
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -12304,7 +10234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>395</v>
       </c>
@@ -12324,7 +10254,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -12338,7 +10268,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>499</v>
       </c>
@@ -12376,17 +10306,17 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12406,7 +10336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>464</v>
       </c>
@@ -12426,7 +10356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>350</v>
       </c>
@@ -12446,7 +10376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -12466,7 +10396,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>354</v>
       </c>
@@ -12486,7 +10416,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -12500,7 +10430,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>504</v>
       </c>
@@ -12517,7 +10447,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -12537,7 +10467,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -12551,7 +10481,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -12571,7 +10501,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>592</v>
       </c>
@@ -12591,7 +10521,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -12605,7 +10535,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -12625,9 +10555,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -12645,7 +10575,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -12659,7 +10589,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -12673,7 +10603,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>508</v>
       </c>
@@ -12693,7 +10623,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>504</v>
       </c>
@@ -12710,7 +10640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>364</v>
       </c>
@@ -12721,7 +10651,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>415</v>
       </c>
@@ -12741,7 +10671,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -12761,7 +10691,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -12775,7 +10705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -12795,7 +10725,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -12815,7 +10745,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -12835,7 +10765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -12849,7 +10779,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -12863,7 +10793,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -12883,7 +10813,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -12897,7 +10827,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -12911,7 +10841,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -12931,7 +10861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>519</v>
       </c>
@@ -12951,7 +10881,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -12971,7 +10901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -12985,7 +10915,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -12999,7 +10929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -13019,7 +10949,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -13039,7 +10969,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>40</v>
       </c>
@@ -13053,7 +10983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -13067,7 +10997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>524</v>
       </c>
@@ -13087,7 +11017,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -13101,7 +11031,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>451</v>
       </c>
@@ -13121,7 +11051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>235</v>
       </c>
@@ -13141,7 +11071,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>395</v>
       </c>
@@ -13161,7 +11091,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>12</v>
       </c>
@@ -13175,7 +11105,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>340</v>
       </c>
@@ -13195,7 +11125,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -13209,7 +11139,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -13223,7 +11153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -13237,7 +11167,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -13251,7 +11181,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>537</v>
       </c>
@@ -13271,7 +11201,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>11</v>
       </c>
@@ -13285,7 +11215,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -13299,7 +11229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>16</v>
       </c>
@@ -13313,7 +11243,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>17</v>
       </c>
@@ -13342,20 +11272,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13375,7 +11305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -13395,7 +11325,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>40</v>
       </c>
@@ -13409,7 +11339,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>504</v>
       </c>
@@ -13426,7 +11356,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>545</v>
       </c>
@@ -13437,7 +11367,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>354</v>
       </c>
@@ -13457,7 +11387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -13477,7 +11407,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -13491,7 +11421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -13505,7 +11435,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -13525,7 +11455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>550</v>
       </c>
@@ -13545,7 +11475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -13559,7 +11489,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -13573,7 +11503,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -13593,7 +11523,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>40</v>
       </c>
@@ -13607,7 +11537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -13621,7 +11551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>554</v>
       </c>
@@ -13641,7 +11571,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11042" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D6E9242-8E13-491E-BF6E-C40C71D427CE}"/>
+  <xr:revisionPtr revIDLastSave="11112" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E9526E-F172-4219-BBF3-F42FE585324A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -26,6 +26,8 @@
     <sheet name="2022" sheetId="38" r:id="rId11"/>
     <sheet name="2023" sheetId="41" r:id="rId12"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId13"/>
+    <sheet name="Wins-Losses" sheetId="42" r:id="rId14"/>
+    <sheet name="Winning Percentile Range" sheetId="44" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="671">
   <si>
     <t>ROUND</t>
   </si>
@@ -2025,6 +2027,39 @@
   </si>
   <si>
     <t>Elena Rybakina (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>ABU DHABI OPEN</t>
+  </si>
+  <si>
+    <t>Danielle Collins (USA)</t>
+  </si>
+  <si>
+    <t>7-5 1-6 7-5</t>
+  </si>
+  <si>
+    <t>7-6(10) 6-1</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>Jessica Pegula (USA)</t>
+  </si>
+  <si>
+    <t>6-2 2-6 7-5</t>
+  </si>
+  <si>
+    <t>Katarina Zavatska (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Linda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Aryna Sabalenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>2-6 6-1 6-1</t>
   </si>
 </sst>
 </file>
@@ -2128,6 +2163,2346 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lv-LV" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Jeļena Ostapenko</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> (LATVIA): Wins-Losses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WINS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'YTD Stats'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D934-4761-8832-C4817B4A5541}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LOSSES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'YTD Stats'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D934-4761-8832-C4817B4A5541}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1654659871"/>
+        <c:axId val="1654644479"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1654659871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>YEAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654644479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1654644479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>NUMBER OF MATCHES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654659871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lv-LV" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Jeļena Ostapenko</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> (LATVIA): Winning Percentile Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WINNING PERCENTILE RANGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'YTD Stats'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56818181818181823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6956521739130432E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42424242424242425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8478-47F8-898D-732AF4A08D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1838108927"/>
+        <c:axId val="1838111839"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1838108927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>YEAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1838111839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1838111839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>PERCENTAGE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1838108927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6A67F30D-3EBF-45D5-BF72-A422B60C0725}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50743565-D4AF-4402-8DA3-486218E8A490}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B616CF4-9D97-C631-8EB7-03AA72F12FFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1086CB2C-F336-B27C-5760-57F050E8AD16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3688,8 +6063,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E70" activeCellId="18" sqref="E2 E6 E11 E23 E25 E27 E29 E31 E34 E37 E43 E48 E51 E54 E56 E62 E64 E66 E70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4583,15 +6958,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" activeCellId="1" sqref="E2 E7:E10"/>
+      <selection activeCell="E21" activeCellId="5" sqref="E3 E5 E11 E14 E17 E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
@@ -4752,6 +7127,122 @@
       </c>
       <c r="F11" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>660</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>661</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>633</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>664</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>620</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>665</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>667</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>668</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>669</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -4768,7 +7259,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="A1:A13 D1:E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5037,20 +7528,20 @@
         <v>2023</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5059,7 +7550,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -5067,15 +7558,15 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.3961661341853035</v>
+        <v>0.39432176656151419</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5084,7 +7575,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>16.916666666666668</v>
+        <v>17.166666666666668</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -5092,15 +7583,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>26.083333333333332</v>
+        <v>26.416666666666668</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>15.75</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.3961661341853035</v>
+        <v>0.39432176656151424</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11112" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E9526E-F172-4219-BBF3-F42FE585324A}"/>
+  <xr:revisionPtr revIDLastSave="11144" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DBA5BA2-5F41-4A73-8929-A7AAB669A48C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="676">
   <si>
     <t>ROUND</t>
   </si>
@@ -2060,6 +2060,21 @@
   </si>
   <si>
     <t>2-6 6-1 6-1</t>
+  </si>
+  <si>
+    <t>7-5 3-6 6-2</t>
+  </si>
+  <si>
+    <t>0-6 6-0 6-4</t>
+  </si>
+  <si>
+    <t>Mirjam Bjorklund (SWEDEN)</t>
+  </si>
+  <si>
+    <t>6-2 4-6 6-3</t>
+  </si>
+  <si>
+    <t>Martina Trevisan (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -2359,7 +2374,7 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2479,7 +2494,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6063,8 +6078,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6958,10 +6973,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" activeCellId="5" sqref="E3 E5 E11 E14 E17 E21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" activeCellId="7" sqref="E3 E5 E11 E14 E17 E21 E24 E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7243,6 +7258,88 @@
       </c>
       <c r="F21" t="s">
         <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>603</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>673</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>632</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>675</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -7528,16 +7625,16 @@
         <v>2023</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
@@ -7550,7 +7647,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -7558,15 +7655,15 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.39432176656151419</v>
+        <v>0.39374999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7575,7 +7672,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>17.166666666666668</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -7583,20 +7680,20 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>26.416666666666668</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>16</v>
+        <v>16.166666666666668</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.39432176656151424</v>
+        <v>0.39374999999999999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:F13">
-    <cfRule type="iconSet" priority="41">
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7604,8 +7701,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F6:F13">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11144" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DBA5BA2-5F41-4A73-8929-A7AAB669A48C}"/>
+  <xr:revisionPtr revIDLastSave="11155" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D31B2E40-8593-4193-B44E-A9459C2CF19B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="4284" yWindow="4056" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="678">
   <si>
     <t>ROUND</t>
   </si>
@@ -2075,6 +2075,12 @@
   </si>
   <si>
     <t>Martina Trevisan (ITALY)</t>
+  </si>
+  <si>
+    <t>Ons Jabeur (TUNISIA)</t>
+  </si>
+  <si>
+    <t>1-6 7-5 6-3</t>
   </si>
 </sst>
 </file>
@@ -2374,7 +2380,7 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2494,7 +2500,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,7 +3033,7 @@
                   <c:v>0.42424242424242425</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6973,10 +6979,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" activeCellId="7" sqref="E3 E5 E11 E14 E17 E21 E24 E28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" activeCellId="7" sqref="E2 E7:E10 E13 E16 E19:E20 E23 E26:E27 E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7340,6 +7346,40 @@
       </c>
       <c r="F28" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>639</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>676</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -7625,20 +7665,20 @@
         <v>2023</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7647,7 +7687,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -7655,15 +7695,15 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.39374999999999999</v>
+        <v>0.3925233644859813</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7672,7 +7712,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>17.333333333333332</v>
+        <v>17.416666666666668</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -7680,15 +7720,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>26.666666666666668</v>
+        <v>26.75</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>16.166666666666668</v>
+        <v>16.25</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.39374999999999999</v>
+        <v>0.3925233644859813</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11155" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D31B2E40-8593-4193-B44E-A9459C2CF19B}"/>
+  <xr:revisionPtr revIDLastSave="11168" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32503104-5BEE-4B2C-9FEE-82FF21DD0525}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4284" yWindow="4056" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="680">
   <si>
     <t>ROUND</t>
   </si>
@@ -394,9 +394,6 @@
     <t>Barbora Krejčíková (CZECH REPUBLIC)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>7-5 6-4</t>
   </si>
   <si>
@@ -2081,6 +2078,15 @@
   </si>
   <si>
     <t>1-6 7-5 6-3</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>6-0 6-3</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2386,7 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2500,7 +2506,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,7 +3039,7 @@
                   <c:v>0.42424242424242425</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.30769230769230771</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4448,7 +4454,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50743565-D4AF-4402-8DA3-486218E8A490}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4829,17 +4835,17 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4864,7 +4870,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4873,7 +4879,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -4887,18 +4893,18 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>128</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -4907,7 +4913,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -4921,7 +4927,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -4935,13 +4941,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>134</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4949,7 +4955,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -4960,7 +4966,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -4969,13 +4975,13 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>139</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4983,7 +4989,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -4997,7 +5003,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -5011,7 +5017,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -5022,7 +5028,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -5031,7 +5037,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -5051,7 +5057,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -5071,7 +5077,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -5085,7 +5091,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -5099,13 +5105,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5113,7 +5119,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -5127,7 +5133,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -5138,7 +5144,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -5147,7 +5153,7 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -5161,7 +5167,7 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -5175,7 +5181,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -5199,17 +5205,17 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5243,13 +5249,13 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5257,7 +5263,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -5271,13 +5277,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5311,7 +5317,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -5345,7 +5351,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -5370,7 +5376,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -5379,7 +5385,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -5393,13 +5399,13 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>557</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>558</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5414,13 +5420,13 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
+        <v>559</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>560</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5428,13 +5434,13 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5442,7 +5448,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -5453,24 +5459,24 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
+        <v>563</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
         <v>564</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -5479,7 +5485,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -5499,12 +5505,12 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>677</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -5513,7 +5519,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -5527,7 +5533,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -5547,7 +5553,7 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -5575,13 +5581,13 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5595,7 +5601,7 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5615,7 +5621,7 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5629,7 +5635,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -5643,13 +5649,13 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
+        <v>568</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
         <v>569</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5663,7 +5669,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -5683,7 +5689,7 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -5691,13 +5697,13 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5705,7 +5711,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -5739,7 +5745,7 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -5753,13 +5759,13 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5773,12 +5779,12 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -5787,18 +5793,18 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -5807,7 +5813,7 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -5818,7 +5824,7 @@
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -5827,7 +5833,7 @@
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -5841,13 +5847,13 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5855,18 +5861,18 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -5875,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -5889,13 +5895,13 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>579</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>580</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5903,13 +5909,13 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -5917,13 +5923,13 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
+        <v>583</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
         <v>584</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5931,18 +5937,18 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -5951,7 +5957,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -5965,7 +5971,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
@@ -5976,7 +5982,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -5985,7 +5991,7 @@
         <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -5999,13 +6005,13 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -6013,7 +6019,7 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
@@ -6027,13 +6033,13 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6047,12 +6053,12 @@
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
@@ -6061,13 +6067,13 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
+        <v>593</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
         <v>594</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -6085,17 +6091,17 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6120,7 +6126,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6129,13 +6135,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>596</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6149,13 +6155,13 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6163,13 +6169,13 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6183,12 +6189,12 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -6197,7 +6203,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -6211,7 +6217,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -6225,13 +6231,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
+        <v>602</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>603</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6239,7 +6245,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -6273,13 +6279,13 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6287,13 +6293,13 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6301,13 +6307,13 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6315,7 +6321,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -6335,7 +6341,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -6349,13 +6355,13 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6377,7 +6383,7 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6391,7 +6397,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -6402,7 +6408,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -6411,13 +6417,13 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6431,18 +6437,18 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>677</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
@@ -6451,13 +6457,13 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
+        <v>613</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
         <v>614</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6471,7 +6477,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -6491,7 +6497,7 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -6505,13 +6511,13 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -6525,13 +6531,13 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -6539,13 +6545,13 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6565,7 +6571,7 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -6573,13 +6579,13 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>619</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
         <v>620</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -6587,7 +6593,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -6601,7 +6607,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -6615,7 +6621,7 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -6635,13 +6641,13 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -6649,7 +6655,7 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -6663,13 +6669,13 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
+        <v>624</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>625</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -6677,18 +6683,18 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
+        <v>626</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
         <v>627</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -6697,7 +6703,7 @@
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -6711,18 +6717,18 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -6731,13 +6737,13 @@
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -6745,7 +6751,7 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -6765,7 +6771,7 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -6776,7 +6782,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -6785,13 +6791,13 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
+        <v>633</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>634</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -6799,13 +6805,13 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
+        <v>635</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
         <v>636</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -6813,7 +6819,7 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -6827,13 +6833,13 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
+        <v>638</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
         <v>639</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -6841,18 +6847,18 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
@@ -6861,18 +6867,18 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
+        <v>641</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
         <v>642</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -6881,7 +6887,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
@@ -6892,7 +6898,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
@@ -6901,7 +6907,7 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
@@ -6915,13 +6921,13 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
+        <v>644</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
         <v>645</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6929,43 +6935,43 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B72" t="s">
         <v>33</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" s="9"/>
       <c r="D73" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -6979,10 +6985,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" activeCellId="7" sqref="E2 E7:E10 E13 E16 E19:E20 E23 E26:E27 E30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" activeCellId="9" sqref="A2 A5 A7 A13 A16 A19 A23 A26 A30 A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6990,7 +6996,7 @@
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -7017,7 +7023,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -7041,7 +7047,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -7052,7 +7058,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -7061,7 +7067,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -7081,7 +7087,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -7096,13 +7102,13 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7111,7 +7117,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -7126,7 +7132,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -7141,7 +7147,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -7152,7 +7158,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -7161,13 +7167,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>660</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
         <v>661</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7175,18 +7181,18 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -7195,7 +7201,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -7209,13 +7215,13 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>664</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
         <v>665</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7229,7 +7235,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -7243,7 +7249,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -7257,18 +7263,18 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>668</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
         <v>669</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -7277,13 +7283,13 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7291,13 +7297,13 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7311,7 +7317,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -7325,13 +7331,13 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7339,7 +7345,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -7350,7 +7356,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -7359,7 +7365,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -7373,13 +7379,47 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>675</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
         <v>676</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>677</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>667</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>679</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -7395,18 +7435,18 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7414,10 +7454,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -7665,20 +7705,20 @@
         <v>2023</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>0.30769230769230771</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7687,7 +7727,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -7695,24 +7735,24 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.3925233644859813</v>
+        <v>0.39130434782608697</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>17.416666666666668</v>
+        <v>17.5</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -7720,15 +7760,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>26.75</v>
+        <v>26.833333333333332</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>16.25</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.3925233644859813</v>
+        <v>0.39130434782608697</v>
       </c>
     </row>
   </sheetData>
@@ -7763,17 +7803,17 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7798,7 +7838,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -7807,13 +7847,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7821,13 +7861,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7835,7 +7875,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -7849,7 +7889,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -7863,7 +7903,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -7874,7 +7914,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -7883,7 +7923,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -7897,7 +7937,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -7908,7 +7948,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -7917,18 +7957,18 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>165</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -7937,13 +7977,13 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
         <v>172</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7951,7 +7991,7 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -7965,13 +8005,13 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -7979,7 +8019,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -7990,7 +8030,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -7999,7 +8039,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -8013,7 +8053,7 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -8024,7 +8064,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -8033,13 +8073,13 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -8053,12 +8093,12 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -8067,7 +8107,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -8081,7 +8121,7 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -8095,13 +8135,13 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -8109,7 +8149,7 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -8123,13 +8163,13 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -8146,17 +8186,17 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8181,7 +8221,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -8196,12 +8236,12 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -8210,13 +8250,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8224,18 +8264,18 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -8244,7 +8284,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -8258,7 +8298,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -8272,13 +8312,13 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8286,18 +8326,18 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -8306,7 +8346,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -8320,7 +8360,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -8334,7 +8374,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -8348,13 +8388,13 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -8362,18 +8402,18 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
         <v>206</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -8382,13 +8422,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -8396,7 +8436,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -8410,18 +8450,18 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
@@ -8430,13 +8470,13 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -8444,7 +8484,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -8458,13 +8498,13 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -8472,7 +8512,7 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -8486,7 +8526,7 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -8497,7 +8537,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -8506,7 +8546,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -8520,13 +8560,13 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -8534,7 +8574,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -8548,7 +8588,7 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -8562,18 +8602,18 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -8596,7 +8636,7 @@
         <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -8616,7 +8656,7 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -8630,12 +8670,12 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -8644,7 +8684,7 @@
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -8658,13 +8698,13 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -8700,7 +8740,7 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -8711,7 +8751,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
@@ -8720,7 +8760,7 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -8748,7 +8788,7 @@
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -8759,7 +8799,7 @@
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -8768,7 +8808,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -8782,7 +8822,7 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -8793,7 +8833,7 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -8802,7 +8842,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -8816,7 +8856,7 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -8830,7 +8870,7 @@
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -8841,7 +8881,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -8850,7 +8890,7 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
@@ -8864,7 +8904,7 @@
         <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
@@ -8875,7 +8915,7 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -8884,18 +8924,18 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
+        <v>245</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
         <v>246</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -8904,7 +8944,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
@@ -8918,7 +8958,7 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
@@ -8932,7 +8972,7 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
@@ -8952,7 +8992,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
@@ -8966,7 +9006,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -8980,13 +9020,13 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8994,13 +9034,13 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -9008,18 +9048,18 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
@@ -9028,7 +9068,7 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
@@ -9042,7 +9082,7 @@
         <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
@@ -9056,13 +9096,13 @@
         <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -9079,17 +9119,17 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9114,7 +9154,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -9137,18 +9177,18 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -9157,7 +9197,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -9171,7 +9211,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -9185,7 +9225,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -9199,18 +9239,18 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -9219,7 +9259,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -9233,7 +9273,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -9247,13 +9287,13 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -9261,13 +9301,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -9275,7 +9315,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -9295,7 +9335,7 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -9303,7 +9343,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -9317,7 +9357,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -9328,7 +9368,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -9337,7 +9377,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -9357,7 +9397,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -9365,13 +9405,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -9379,7 +9419,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -9393,13 +9433,13 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9427,13 +9467,13 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -9441,18 +9481,18 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
@@ -9461,7 +9501,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -9475,7 +9515,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -9489,13 +9529,13 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -9503,13 +9543,13 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9523,18 +9563,18 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s">
         <v>81</v>
@@ -9543,7 +9583,7 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -9563,7 +9603,7 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9577,12 +9617,12 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
@@ -9591,13 +9631,13 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -9639,7 +9679,7 @@
         <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
@@ -9650,7 +9690,7 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -9659,13 +9699,13 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -9673,18 +9713,18 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
+        <v>307</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
         <v>308</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
@@ -9693,18 +9733,18 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -9713,13 +9753,13 @@
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -9727,7 +9767,7 @@
         <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -9741,7 +9781,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
@@ -9752,7 +9792,7 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s">
         <v>33</v>
@@ -9761,7 +9801,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -9775,13 +9815,13 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -9803,13 +9843,13 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -9817,7 +9857,7 @@
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
@@ -9828,7 +9868,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -9837,7 +9877,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
@@ -9851,7 +9891,7 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
@@ -9871,13 +9911,13 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -9885,13 +9925,13 @@
         <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -9899,7 +9939,7 @@
         <v>37</v>
       </c>
       <c r="D66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -9913,13 +9953,13 @@
         <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -9927,18 +9967,18 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B70" t="s">
         <v>43</v>
@@ -9947,13 +9987,13 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -9967,7 +10007,7 @@
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -9975,7 +10015,7 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
@@ -9989,7 +10029,7 @@
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -10003,7 +10043,7 @@
         <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
@@ -10014,7 +10054,7 @@
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
@@ -10023,18 +10063,18 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
+        <v>337</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
         <v>338</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
@@ -10043,7 +10083,7 @@
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
@@ -10057,7 +10097,7 @@
         <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
@@ -10071,18 +10111,18 @@
         <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" t="s">
         <v>19</v>
@@ -10091,13 +10131,13 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -10105,13 +10145,13 @@
         <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -10128,17 +10168,17 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10163,7 +10203,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -10172,13 +10212,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -10186,18 +10226,18 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -10206,13 +10246,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10226,18 +10266,18 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>352</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -10246,7 +10286,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -10266,13 +10306,13 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -10280,7 +10320,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -10300,7 +10340,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -10314,13 +10354,13 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -10328,13 +10368,13 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -10342,7 +10382,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -10356,13 +10396,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10376,12 +10416,12 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -10390,13 +10430,13 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10421,7 +10461,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -10430,7 +10470,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -10464,7 +10504,7 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -10472,7 +10512,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -10492,18 +10532,18 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>677</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -10512,13 +10552,13 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10532,7 +10572,7 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -10546,13 +10586,13 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -10560,7 +10600,7 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
@@ -10580,7 +10620,7 @@
         <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
@@ -10591,7 +10631,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
@@ -10600,7 +10640,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -10634,13 +10674,13 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -10648,13 +10688,13 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -10662,13 +10702,13 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
+        <v>376</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
         <v>377</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10682,13 +10722,13 @@
         <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -10696,7 +10736,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -10716,7 +10756,7 @@
         <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -10727,7 +10767,7 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -10736,18 +10776,18 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -10756,18 +10796,18 @@
         <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -10776,13 +10816,13 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -10790,7 +10830,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -10810,12 +10850,12 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
@@ -10830,12 +10870,12 @@
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
@@ -10844,13 +10884,13 @@
         <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -10869,7 +10909,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -10878,7 +10918,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
@@ -10892,7 +10932,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
@@ -10912,7 +10952,7 @@
         <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -10923,7 +10963,7 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
@@ -10932,7 +10972,7 @@
         <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -10943,7 +10983,7 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
@@ -10952,18 +10992,18 @@
         <v>40</v>
       </c>
       <c r="D72" t="s">
+        <v>395</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
         <v>396</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -10972,7 +11012,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
@@ -10983,7 +11023,7 @@
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
@@ -10992,7 +11032,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
@@ -11015,17 +11055,17 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C50"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11050,7 +11090,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -11059,7 +11099,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -11073,7 +11113,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -11087,7 +11127,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -11101,13 +11141,13 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11121,7 +11161,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -11135,7 +11175,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -11155,12 +11195,12 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -11200,7 +11240,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -11209,7 +11249,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -11223,13 +11263,13 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -11237,18 +11277,18 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
+        <v>406</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
         <v>407</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -11257,13 +11297,13 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -11271,7 +11311,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -11291,7 +11331,7 @@
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -11302,7 +11342,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -11325,13 +11365,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -11339,13 +11379,13 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -11353,7 +11393,7 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -11367,13 +11407,13 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -11381,7 +11421,7 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -11392,7 +11432,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -11401,13 +11441,13 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -11415,7 +11455,7 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -11429,13 +11469,13 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -11443,13 +11483,13 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11463,7 +11503,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -11477,13 +11517,13 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -11491,13 +11531,13 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -11525,13 +11565,13 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
         <v>427</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -11539,13 +11579,13 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -11553,7 +11593,7 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -11567,7 +11607,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
@@ -11593,7 +11633,7 @@
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -11601,7 +11641,7 @@
         <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -11615,7 +11655,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
@@ -11635,7 +11675,7 @@
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -11643,13 +11683,13 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -11657,13 +11697,13 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -11671,13 +11711,13 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11697,7 +11737,7 @@
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -11705,13 +11745,13 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
+        <v>435</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
         <v>436</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11725,13 +11765,13 @@
         <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -11739,13 +11779,13 @@
         <v>40</v>
       </c>
       <c r="D58" t="s">
+        <v>439</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>440</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -11753,13 +11793,13 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -11767,13 +11807,13 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -11781,7 +11821,7 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -11792,7 +11832,7 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -11801,18 +11841,18 @@
         <v>40</v>
       </c>
       <c r="D63" t="s">
+        <v>445</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
         <v>446</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -11821,7 +11861,7 @@
         <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -11847,7 +11887,7 @@
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -11855,13 +11895,13 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -11869,7 +11909,7 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
@@ -11880,7 +11920,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
@@ -11889,13 +11929,13 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -11903,7 +11943,7 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
@@ -11917,7 +11957,7 @@
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -11931,7 +11971,7 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
@@ -11945,18 +11985,18 @@
         <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
@@ -11965,13 +12005,13 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
+        <v>454</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
         <v>455</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -11979,13 +12019,13 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -11993,13 +12033,13 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -12007,7 +12047,7 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
@@ -12018,7 +12058,7 @@
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B82" t="s">
         <v>19</v>
@@ -12041,13 +12081,13 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
+        <v>458</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
         <v>459</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -12055,13 +12095,13 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -12069,7 +12109,7 @@
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>14</v>
@@ -12080,13 +12120,13 @@
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B87" t="s">
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D87" t="s">
         <v>54</v>
@@ -12100,24 +12140,24 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
+        <v>461</v>
+      </c>
+      <c r="D88" t="s">
+        <v>444</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
         <v>462</v>
-      </c>
-      <c r="D88" t="s">
-        <v>445</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D89" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>14</v>
@@ -12141,17 +12181,17 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12176,7 +12216,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -12196,7 +12236,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -12205,13 +12245,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>466</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12225,7 +12265,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -12239,7 +12279,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -12259,12 +12299,12 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -12273,13 +12313,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12287,7 +12327,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -12307,7 +12347,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -12327,18 +12367,18 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -12353,7 +12393,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -12361,7 +12401,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -12387,7 +12427,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -12395,13 +12435,13 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -12409,13 +12449,13 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -12423,13 +12463,13 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -12443,7 +12483,7 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -12451,18 +12491,18 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -12471,7 +12511,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -12491,12 +12531,12 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>677</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -12505,7 +12545,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -12525,7 +12565,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -12539,13 +12579,13 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -12553,13 +12593,13 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
+        <v>484</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
         <v>485</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12593,7 +12633,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -12607,7 +12647,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -12621,7 +12661,7 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -12641,13 +12681,13 @@
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -12655,7 +12695,7 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -12669,7 +12709,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -12683,13 +12723,13 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -12697,13 +12737,13 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -12711,7 +12751,7 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -12722,7 +12762,7 @@
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -12731,18 +12771,18 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -12751,13 +12791,13 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
+        <v>492</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
         <v>493</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12771,13 +12811,13 @@
         <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -12785,13 +12825,13 @@
         <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -12799,7 +12839,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -12810,7 +12850,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -12833,7 +12873,7 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
@@ -12844,7 +12884,7 @@
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
@@ -12853,7 +12893,7 @@
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -12864,7 +12904,7 @@
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
@@ -12873,13 +12913,13 @@
         <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -12898,7 +12938,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -12907,13 +12947,13 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
+        <v>499</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
         <v>500</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -12931,17 +12971,17 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12966,7 +13006,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -12975,7 +13015,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -12986,7 +13026,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -12995,7 +13035,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -13015,18 +13055,18 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -13035,13 +13075,13 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -13049,30 +13089,30 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13086,13 +13126,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -13100,13 +13140,13 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13120,7 +13160,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -13131,7 +13171,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -13140,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -13160,7 +13200,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13185,7 +13225,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -13194,7 +13234,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -13208,13 +13248,13 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13222,7 +13262,7 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -13233,7 +13273,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -13242,24 +13282,24 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
+        <v>508</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
         <v>509</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -13270,18 +13310,18 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -13290,18 +13330,18 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>677</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -13310,7 +13350,7 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -13324,7 +13364,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -13344,13 +13384,13 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13370,7 +13410,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13384,7 +13424,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -13398,7 +13438,7 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -13412,13 +13452,13 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -13432,13 +13472,13 @@
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -13446,13 +13486,13 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -13460,13 +13500,13 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13480,7 +13520,7 @@
         <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -13491,7 +13531,7 @@
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
@@ -13511,7 +13551,7 @@
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -13534,13 +13574,13 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -13548,7 +13588,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -13559,7 +13599,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -13568,13 +13608,13 @@
         <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13588,13 +13628,13 @@
         <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -13602,7 +13642,7 @@
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -13616,7 +13656,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -13627,7 +13667,7 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -13636,13 +13676,13 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
+        <v>524</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
         <v>525</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -13650,7 +13690,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
@@ -13661,7 +13701,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -13681,7 +13721,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
@@ -13690,18 +13730,18 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
@@ -13716,7 +13756,7 @@
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -13724,7 +13764,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>14</v>
@@ -13735,7 +13775,7 @@
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
@@ -13744,7 +13784,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -13758,13 +13798,13 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -13772,7 +13812,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -13786,13 +13826,13 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -13800,18 +13840,18 @@
         <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
@@ -13820,13 +13860,13 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
+        <v>537</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -13834,13 +13874,13 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.3">
@@ -13848,7 +13888,7 @@
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
@@ -13862,13 +13902,13 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.3">
@@ -13876,7 +13916,7 @@
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
@@ -13899,18 +13939,18 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13944,7 +13984,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -13964,12 +14004,12 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -13981,23 +14021,23 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -14006,7 +14046,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -14032,7 +14072,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -14040,7 +14080,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -14054,13 +14094,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14074,7 +14114,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -14085,7 +14125,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -14094,7 +14134,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -14108,13 +14148,13 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -14122,13 +14162,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14142,7 +14182,7 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -14170,7 +14210,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -14181,7 +14221,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -14190,7 +14230,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -14210,7 +14250,7 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10927" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA47516-AF0B-4E56-9621-CFDFB02CFCB6}"/>
+  <xr:revisionPtr revIDLastSave="11155" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D31B2E40-8593-4193-B44E-A9459C2CF19B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="4284" yWindow="4056" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="2020" sheetId="27" r:id="rId9"/>
     <sheet name="2021" sheetId="28" r:id="rId10"/>
     <sheet name="2022" sheetId="38" r:id="rId11"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId12"/>
-    <sheet name="YTD Wins-Losses" sheetId="39" r:id="rId13"/>
-    <sheet name="Winning Percentile Range" sheetId="40" r:id="rId14"/>
+    <sheet name="2023" sheetId="41" r:id="rId12"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId13"/>
+    <sheet name="Wins-Losses" sheetId="42" r:id="rId14"/>
+    <sheet name="Winning Percentile Range" sheetId="44" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="678">
   <si>
     <t>ROUND</t>
   </si>
@@ -1278,9 +1279,6 @@
     <t>6-4 2-6 7-6(3)</t>
   </si>
   <si>
-    <t>VOLVO CAR OPEN</t>
-  </si>
-  <si>
     <t>Fanny Stollár (HUNGARY)</t>
   </si>
   <si>
@@ -1848,9 +1846,6 @@
     <t>6-7(7) 6-4 6-1</t>
   </si>
   <si>
-    <t>Alison Riske (USA)</t>
-  </si>
-  <si>
     <t>6-4 2-6 6-4</t>
   </si>
   <si>
@@ -1975,6 +1970,117 @@
   </si>
   <si>
     <t>4-6 6-3 3-0 RETIRED</t>
+  </si>
+  <si>
+    <t>TALLINN OPEN</t>
+  </si>
+  <si>
+    <t>Kaia Kanepi (ESTONIA)</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-0</t>
+  </si>
+  <si>
+    <t>GUADALAJARA OPEN</t>
+  </si>
+  <si>
+    <t>Genie Bouchard (CANADA)</t>
+  </si>
+  <si>
+    <t>7-5 2-6 6-1</t>
+  </si>
+  <si>
+    <t>CHARLESTON OPEN</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
+  </si>
+  <si>
+    <t>7-6(5) 5-7 6-0</t>
+  </si>
+  <si>
+    <t>3-6 6-2 7-6(9)</t>
+  </si>
+  <si>
+    <t>6-0 3-6 6-1</t>
+  </si>
+  <si>
+    <t>Sinja Kraus (AUSTRIA)</t>
+  </si>
+  <si>
+    <t>Tamira Paszek (AUSTRIA)</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 1</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 2</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Anna Bondár (HUNGARY)</t>
+  </si>
+  <si>
+    <t>Kateryna Baindl (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Elena Rybakina (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>ABU DHABI OPEN</t>
+  </si>
+  <si>
+    <t>Danielle Collins (USA)</t>
+  </si>
+  <si>
+    <t>7-5 1-6 7-5</t>
+  </si>
+  <si>
+    <t>7-6(10) 6-1</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>Jessica Pegula (USA)</t>
+  </si>
+  <si>
+    <t>6-2 2-6 7-5</t>
+  </si>
+  <si>
+    <t>Katarina Zavatska (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Linda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Aryna Sabalenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>2-6 6-1 6-1</t>
+  </si>
+  <si>
+    <t>7-5 3-6 6-2</t>
+  </si>
+  <si>
+    <t>0-6 6-0 6-4</t>
+  </si>
+  <si>
+    <t>Mirjam Bjorklund (SWEDEN)</t>
+  </si>
+  <si>
+    <t>6-2 4-6 6-3</t>
+  </si>
+  <si>
+    <t>Martina Trevisan (ITALY)</t>
+  </si>
+  <si>
+    <t>Ons Jabeur (TUNISIA)</t>
+  </si>
+  <si>
+    <t>1-6 7-5 6-3</t>
   </si>
 </sst>
 </file>
@@ -2050,7 +2156,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2060,6 +2166,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2122,7 +2229,7 @@
               <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> (LATVIA): YTD Wins-Losses</a:t>
+              <a:t> (LATVIA): Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2190,10 +2297,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2227,15 +2334,18 @@
                 <c:pt idx="10">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$12</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -2267,14 +2377,17 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-611C-453D-A8CA-307C53759205}"/>
+              <c16:uniqueId val="{00000000-D934-4761-8832-C4817B4A5541}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2304,10 +2417,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2341,15 +2454,18 @@
                 <c:pt idx="10">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$12</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2381,14 +2497,17 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-611C-453D-A8CA-307C53759205}"/>
+              <c16:uniqueId val="{00000001-D934-4761-8832-C4817B4A5541}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2402,11 +2521,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1497912079"/>
-        <c:axId val="1497910831"/>
+        <c:axId val="1654659871"/>
+        <c:axId val="1654644479"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1497912079"/>
+        <c:axId val="1654659871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,7 +2623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1497910831"/>
+        <c:crossAx val="1654644479"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2512,7 +2631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1497910831"/>
+        <c:axId val="1654644479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2618,7 +2737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1497912079"/>
+        <c:crossAx val="1654659871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2727,20 +2846,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="lv-LV" sz="1400" b="1" i="0" baseline="0">
+              <a:rPr lang="lv-LV" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Jeļena Ostapenko</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> (LATVIA): Winning Percentile Range</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2828,16 +2945,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2871,15 +2987,18 @@
                 <c:pt idx="10">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$12</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
@@ -2911,7 +3030,10 @@
                   <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44827586206896552</c:v>
+                  <c:v>0.42424242424242425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2919,7 +3041,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A84-40F4-86A9-8EA3297104C4}"/>
+              <c16:uniqueId val="{00000001-8478-47F8-898D-732AF4A08D04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2933,11 +3055,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1459431999"/>
-        <c:axId val="1459432415"/>
+        <c:axId val="1838108927"/>
+        <c:axId val="1838111839"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1459431999"/>
+        <c:axId val="1838108927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3035,7 +3157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1459432415"/>
+        <c:crossAx val="1838111839"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3043,7 +3165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1459432415"/>
+        <c:axId val="1838111839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1459431999"/>
+        <c:crossAx val="1838108927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3808,7 +3930,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3916,11 +4038,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3931,11 +4048,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3967,9 +4079,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4324,7 +4433,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C6F9E990-18E8-4633-9B29-A8AD058FE148}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6A67F30D-3EBF-45D5-BF72-A422B60C0725}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4336,13 +4445,14 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CD1A6610-889A-4392-BC0D-7FFE24FE6428}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50743565-D4AF-4402-8DA3-486218E8A490}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4350,13 +4460,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9AD609-CF51-491A-A64D-F1A3E89ED053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B616CF4-9D97-C631-8EB7-03AA72F12FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4383,13 +4493,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07FEB6B3-08E8-4F57-B474-DF0EC1B737CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1086CB2C-F336-B27C-5760-57F050E8AD16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4410,6 +4520,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4718,17 +4832,17 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4748,7 +4862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -4768,7 +4882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4782,7 +4896,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -4802,7 +4916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4816,7 +4930,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4830,7 +4944,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4844,7 +4958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -4864,7 +4978,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4878,7 +4992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4892,7 +5006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4906,7 +5020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -4926,7 +5040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4946,7 +5060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -4966,7 +5080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -4980,7 +5094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -4994,7 +5108,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -5008,7 +5122,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -5022,7 +5136,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -5042,7 +5156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -5056,7 +5170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5084,21 +5198,21 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5118,7 +5232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -5135,15 +5249,15 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -5152,21 +5266,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5186,7 +5300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -5206,7 +5320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -5220,7 +5334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -5240,7 +5354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -5254,7 +5368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>354</v>
       </c>
@@ -5265,7 +5379,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -5274,22 +5388,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>558</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>559</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -5300,16 +5414,16 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
+        <v>560</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>561</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>40</v>
       </c>
@@ -5320,15 +5434,15 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -5337,26 +5451,26 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
+        <v>564</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
         <v>565</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -5374,7 +5488,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5385,10 +5499,10 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -5399,7 +5513,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -5408,12 +5522,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -5422,7 +5536,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -5433,7 +5547,7 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -5442,7 +5556,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -5456,21 +5570,21 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5481,10 +5595,10 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -5504,7 +5618,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -5524,21 +5638,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
+        <v>569</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
         <v>570</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -5558,7 +5672,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5569,10 +5683,10 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -5583,15 +5697,15 @@
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -5600,7 +5714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>17</v>
       </c>
@@ -5614,7 +5728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -5625,7 +5739,7 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -5634,7 +5748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>40</v>
       </c>
@@ -5645,10 +5759,10 @@
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -5659,10 +5773,10 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -5679,10 +5793,10 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -5693,7 +5807,7 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -5702,7 +5816,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -5713,7 +5827,7 @@
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -5722,26 +5836,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -5750,9 +5864,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -5761,7 +5875,7 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -5770,26 +5884,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>580</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>581</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -5798,37 +5912,37 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>16</v>
       </c>
       <c r="D60" t="s">
+        <v>584</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
         <v>585</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -5837,7 +5951,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -5846,12 +5960,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
@@ -5860,9 +5974,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -5871,7 +5985,7 @@
         <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -5880,12 +5994,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -5894,12 +6008,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
@@ -5908,12 +6022,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
@@ -5922,7 +6036,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -5933,10 +6047,10 @@
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -5947,13 +6061,13 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
+        <v>594</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
         <v>595</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -5968,23 +6082,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58:E61"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6004,7 +6118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -6015,16 +6129,16 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>597</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -6041,24 +6155,24 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -6069,10 +6183,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>354</v>
       </c>
@@ -6083,7 +6197,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -6092,12 +6206,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -6106,26 +6220,26 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -6134,7 +6248,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6154,21 +6268,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -6179,29 +6293,29 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
+        <v>607</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
         <v>609</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -6210,7 +6324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -6230,21 +6344,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -6258,7 +6372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -6272,12 +6386,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -6286,9 +6400,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -6297,16 +6411,16 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -6317,16 +6431,16 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -6337,16 +6451,16 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -6357,7 +6471,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -6366,7 +6480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -6377,7 +6491,7 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -6386,21 +6500,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -6411,21 +6525,21 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -6434,7 +6548,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -6454,26 +6568,26 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -6482,12 +6596,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -6496,7 +6610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>17</v>
       </c>
@@ -6510,7 +6624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -6530,12 +6644,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -6544,37 +6658,37 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="s">
+        <v>627</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>629</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>631</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -6583,7 +6697,7 @@
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -6592,23 +6706,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -6617,7 +6731,7 @@
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -6626,12 +6740,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -6640,7 +6754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -6651,7 +6765,7 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -6660,9 +6774,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -6671,35 +6785,35 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -6708,32 +6822,150 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>641</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>642</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>554</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>603</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>644</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" t="s">
+        <v>616</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>645</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>610</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>504</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" t="s">
+        <v>652</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="9"/>
+      <c r="D73" t="s">
+        <v>653</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -6743,27 +6975,441 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970538EE-321A-4AFC-8CD4-C243DDF233BF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" activeCellId="7" sqref="E2 E7:E10 E13 E16 E19:E20 E23 E26:E27 E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>619</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>657</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>658</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>659</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>660</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>661</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>633</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>664</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>620</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>665</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>667</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>668</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>669</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>603</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>673</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>632</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>675</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>639</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>676</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6783,7 +7429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -6804,7 +7450,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -6825,7 +7471,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -6846,7 +7492,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -6867,7 +7513,7 @@
         <v>0.56818181818181823</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -6888,7 +7534,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -6909,7 +7555,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -6930,7 +7576,7 @@
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -6951,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -6968,11 +7614,11 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ref="F10:F12" si="1">(D10-E10)/D10</f>
+        <f t="shared" ref="F10:F13" si="1">(D10-E10)/D10</f>
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6993,80 +7639,101 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>0.44827586206896552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+        <v>0.42424242424242425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
-        <f>SUM(B2:B12)</f>
-        <v>196</v>
-      </c>
-      <c r="C13" s="2">
-        <f>SUM(C2:C12)</f>
+      <c r="B14" s="2">
+        <f>SUM(B2:B13)</f>
+        <v>209</v>
+      </c>
+      <c r="C14" s="2">
+        <f>SUM(C2:C13)</f>
         <v>5</v>
       </c>
-      <c r="D13" s="2">
-        <f>SUM(D2:D12)</f>
-        <v>304</v>
-      </c>
-      <c r="E13" s="2">
-        <f>SUM(E2:E12)</f>
-        <v>183</v>
-      </c>
-      <c r="F13" s="7">
-        <f>(D13-E13)/D13</f>
-        <v>0.39802631578947367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="2">
-        <f>AVERAGE(B2:B12)</f>
-        <v>17.818181818181817</v>
-      </c>
-      <c r="C14" s="2">
-        <f>AVERAGE(C2:C12)</f>
-        <v>0.45454545454545453</v>
-      </c>
       <c r="D14" s="2">
-        <f>AVERAGE(D2:D12)</f>
-        <v>27.636363636363637</v>
+        <f>SUM(D2:D13)</f>
+        <v>321</v>
       </c>
       <c r="E14" s="2">
-        <f>AVERAGE(E2:E12)</f>
-        <v>16.636363636363637</v>
+        <f>SUM(E2:E13)</f>
+        <v>195</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.39802631578947367</v>
+        <v>0.3925233644859813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(B2:B13)</f>
+        <v>17.416666666666668</v>
+      </c>
+      <c r="C15" s="2">
+        <f>AVERAGE(C2:C13)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D15" s="2">
+        <f>AVERAGE(D2:D13)</f>
+        <v>26.75</v>
+      </c>
+      <c r="E15" s="2">
+        <f>AVERAGE(E2:E13)</f>
+        <v>16.25</v>
+      </c>
+      <c r="F15" s="7">
+        <f>(D15-E15)/D15</f>
+        <v>0.3925233644859813</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:F12">
-    <cfRule type="iconSet" priority="41">
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7074,8 +7741,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F6:F13">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7099,17 +7766,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7129,7 +7796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -7149,7 +7816,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7163,7 +7830,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7177,7 +7844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7191,7 +7858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7205,7 +7872,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -7225,7 +7892,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -7239,7 +7906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -7259,7 +7926,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -7279,7 +7946,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -7293,7 +7960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -7307,7 +7974,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -7321,7 +7988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>174</v>
       </c>
@@ -7341,7 +8008,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -7355,7 +8022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -7375,7 +8042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>21</v>
       </c>
@@ -7389,7 +8056,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -7409,7 +8076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -7423,7 +8090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -7437,7 +8104,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -7451,7 +8118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -7482,17 +8149,17 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7512,7 +8179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>189</v>
       </c>
@@ -7532,7 +8199,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -7552,7 +8219,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -7566,7 +8233,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -7586,7 +8253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -7600,7 +8267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7614,7 +8281,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -7628,7 +8295,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -7648,7 +8315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -7662,7 +8329,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7676,7 +8343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -7690,7 +8357,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -7704,7 +8371,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -7724,7 +8391,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -7738,7 +8405,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -7752,7 +8419,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -7772,7 +8439,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7786,7 +8453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7800,7 +8467,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -7814,7 +8481,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -7828,7 +8495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>195</v>
       </c>
@@ -7848,7 +8515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -7862,7 +8529,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -7876,7 +8543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -7890,7 +8557,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>17</v>
       </c>
@@ -7904,7 +8571,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>224</v>
       </c>
@@ -7924,7 +8591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -7938,7 +8605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -7952,7 +8619,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -7966,7 +8633,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>228</v>
       </c>
@@ -7986,7 +8653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -8000,7 +8667,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -8014,7 +8681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -8028,7 +8695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>16</v>
       </c>
@@ -8042,7 +8709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>232</v>
       </c>
@@ -8062,7 +8729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -8076,7 +8743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>37</v>
       </c>
@@ -8090,7 +8757,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>235</v>
       </c>
@@ -8110,7 +8777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -8124,7 +8791,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -8144,7 +8811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -8158,7 +8825,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8172,7 +8839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>242</v>
       </c>
@@ -8192,7 +8859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>21</v>
       </c>
@@ -8206,7 +8873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>245</v>
       </c>
@@ -8226,7 +8893,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>248</v>
       </c>
@@ -8246,7 +8913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -8260,7 +8927,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -8274,7 +8941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -8294,7 +8961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -8308,7 +8975,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -8322,7 +8989,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -8336,7 +9003,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -8350,7 +9017,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>257</v>
       </c>
@@ -8370,7 +9037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>21</v>
       </c>
@@ -8384,7 +9051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>37</v>
       </c>
@@ -8415,17 +9082,17 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8445,7 +9112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -8465,7 +9132,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8479,7 +9146,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -8499,7 +9166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -8513,7 +9180,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -8527,7 +9194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -8541,7 +9208,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>271</v>
       </c>
@@ -8561,7 +9228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>21</v>
       </c>
@@ -8575,7 +9242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -8589,7 +9256,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -8603,7 +9270,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -8617,7 +9284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -8631,7 +9298,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -8645,7 +9312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -8659,7 +9326,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>281</v>
       </c>
@@ -8679,7 +9346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -8693,7 +9360,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -8707,7 +9374,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -8721,7 +9388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -8735,7 +9402,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -8755,7 +9422,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -8769,7 +9436,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>37</v>
       </c>
@@ -8783,7 +9450,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>292</v>
       </c>
@@ -8803,7 +9470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -8817,7 +9484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -8831,7 +9498,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -8845,7 +9512,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -8865,7 +9532,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>300</v>
       </c>
@@ -8885,7 +9552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -8899,7 +9566,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>37</v>
       </c>
@@ -8913,7 +9580,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>304</v>
       </c>
@@ -8933,7 +9600,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -8947,7 +9614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -8967,7 +9634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>40</v>
       </c>
@@ -8981,7 +9648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>307</v>
       </c>
@@ -9001,7 +9668,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -9015,7 +9682,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -9035,7 +9702,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>313</v>
       </c>
@@ -9055,7 +9722,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -9069,7 +9736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -9083,7 +9750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>316</v>
       </c>
@@ -9103,7 +9770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -9117,7 +9784,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -9131,7 +9798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -9145,7 +9812,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -9159,7 +9826,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>323</v>
       </c>
@@ -9179,7 +9846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -9193,7 +9860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -9213,7 +9880,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>21</v>
       </c>
@@ -9227,7 +9894,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>37</v>
       </c>
@@ -9241,7 +9908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>38</v>
       </c>
@@ -9255,7 +9922,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>40</v>
       </c>
@@ -9269,7 +9936,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>333</v>
       </c>
@@ -9289,7 +9956,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -9303,7 +9970,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -9317,7 +9984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>16</v>
       </c>
@@ -9331,7 +9998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>17</v>
       </c>
@@ -9345,7 +10012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>235</v>
       </c>
@@ -9365,7 +10032,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>340</v>
       </c>
@@ -9385,7 +10052,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -9399,7 +10066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>37</v>
       </c>
@@ -9413,7 +10080,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>143</v>
       </c>
@@ -9433,7 +10100,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>21</v>
       </c>
@@ -9464,17 +10131,17 @@
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9494,7 +10161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>346</v>
       </c>
@@ -9514,7 +10181,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -9528,7 +10195,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>350</v>
       </c>
@@ -9548,7 +10215,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -9568,7 +10235,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -9588,7 +10255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -9608,7 +10275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -9622,7 +10289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -9642,7 +10309,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -9656,7 +10323,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -9670,7 +10337,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -9684,7 +10351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -9698,7 +10365,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -9712,7 +10379,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>365</v>
       </c>
@@ -9732,7 +10399,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -9752,7 +10419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>367</v>
       </c>
@@ -9772,7 +10439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -9786,7 +10453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -9800,7 +10467,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -9814,7 +10481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -9834,7 +10501,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -9854,7 +10521,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -9874,7 +10541,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -9888,7 +10555,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -9902,7 +10569,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -9922,7 +10589,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>375</v>
       </c>
@@ -9942,7 +10609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -9956,7 +10623,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -9976,7 +10643,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -9990,7 +10657,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -10004,7 +10671,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -10024,7 +10691,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -10038,7 +10705,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -10058,7 +10725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>383</v>
       </c>
@@ -10078,7 +10745,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -10098,7 +10765,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>385</v>
       </c>
@@ -10118,7 +10785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -10132,7 +10799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -10146,7 +10813,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -10166,7 +10833,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>124</v>
       </c>
@@ -10186,7 +10853,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -10200,7 +10867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>391</v>
       </c>
@@ -10220,7 +10887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -10234,7 +10901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -10254,7 +10921,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>394</v>
       </c>
@@ -10274,7 +10941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>395</v>
       </c>
@@ -10294,7 +10961,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>340</v>
       </c>
@@ -10314,7 +10981,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -10347,21 +11014,21 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10381,7 +11048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>346</v>
       </c>
@@ -10401,7 +11068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -10415,7 +11082,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -10429,7 +11096,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -10443,7 +11110,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -10463,7 +11130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>40</v>
       </c>
@@ -10477,7 +11144,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -10491,7 +11158,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>354</v>
       </c>
@@ -10511,7 +11178,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -10531,7 +11198,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>406</v>
       </c>
@@ -10551,7 +11218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -10565,7 +11232,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -10579,9 +11246,9 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -10599,7 +11266,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>40</v>
       </c>
@@ -10613,7 +11280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -10633,9 +11300,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>410</v>
+        <v>647</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -10653,35 +11320,35 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -10695,7 +11362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -10706,10 +11373,10 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -10723,9 +11390,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -10734,21 +11401,21 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -10757,35 +11424,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -10805,7 +11472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -10816,10 +11483,10 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -10830,10 +11497,10 @@
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -10847,7 +11514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -10858,35 +11525,35 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
+        <v>427</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
         <v>428</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -10895,7 +11562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -10909,7 +11576,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -10929,7 +11596,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>40</v>
       </c>
@@ -10943,7 +11610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -10957,7 +11624,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -10968,10 +11635,10 @@
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10982,38 +11649,38 @@
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -11030,24 +11697,24 @@
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
+        <v>436</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
         <v>437</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -11064,24 +11731,24 @@
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>40</v>
       </c>
       <c r="D58" t="s">
+        <v>440</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>441</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -11092,29 +11759,29 @@
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -11123,7 +11790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -11134,16 +11801,16 @@
         <v>40</v>
       </c>
       <c r="D63" t="s">
+        <v>446</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
         <v>447</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -11154,7 +11821,7 @@
         <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -11163,7 +11830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -11180,15 +11847,15 @@
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
@@ -11197,7 +11864,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -11211,9 +11878,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
@@ -11228,10 +11895,10 @@
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -11245,7 +11912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -11259,12 +11926,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
@@ -11273,12 +11940,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -11287,7 +11954,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>394</v>
       </c>
@@ -11298,16 +11965,16 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
+        <v>455</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
         <v>456</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -11318,10 +11985,10 @@
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -11332,15 +11999,15 @@
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
@@ -11349,7 +12016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>395</v>
       </c>
@@ -11369,26 +12036,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>11</v>
       </c>
       <c r="D83" t="s">
+        <v>459</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
         <v>460</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>13</v>
@@ -11397,12 +12064,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>14</v>
@@ -11411,15 +12078,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B87" t="s">
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D87" t="s">
         <v>54</v>
@@ -11431,23 +12098,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
+        <v>462</v>
+      </c>
+      <c r="D88" t="s">
+        <v>445</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
         <v>463</v>
       </c>
-      <c r="D88" t="s">
-        <v>446</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D89" t="s">
         <v>373</v>
@@ -11473,21 +12140,21 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11507,9 +12174,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -11527,9 +12194,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -11538,16 +12205,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>467</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -11558,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -11567,12 +12234,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -11581,7 +12248,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -11592,10 +12259,10 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>354</v>
       </c>
@@ -11606,16 +12273,16 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -11629,7 +12296,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -11640,7 +12307,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -11649,7 +12316,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -11666,12 +12333,12 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -11686,15 +12353,15 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -11703,7 +12370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -11723,21 +12390,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -11748,24 +12415,24 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -11776,26 +12443,26 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -11813,7 +12480,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -11824,10 +12491,10 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -11838,7 +12505,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -11847,7 +12514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -11858,7 +12525,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -11867,35 +12534,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
+        <v>485</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
         <v>486</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -11915,7 +12582,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -11926,7 +12593,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -11935,12 +12602,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -11949,7 +12616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -11963,7 +12630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -11974,7 +12641,7 @@
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -11983,7 +12650,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>40</v>
       </c>
@@ -11997,7 +12664,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -12011,7 +12678,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -12025,7 +12692,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -12039,12 +12706,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -12053,7 +12720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -12064,16 +12731,16 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -12084,16 +12751,16 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
+        <v>493</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
         <v>494</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -12110,29 +12777,29 @@
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -12141,9 +12808,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -12161,7 +12828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -12175,7 +12842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>394</v>
       </c>
@@ -12186,7 +12853,7 @@
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -12195,7 +12862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>395</v>
       </c>
@@ -12206,7 +12873,7 @@
         <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
@@ -12215,7 +12882,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -12229,9 +12896,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -12240,13 +12907,13 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
+        <v>500</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
         <v>501</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -12263,21 +12930,21 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12297,9 +12964,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -12317,7 +12984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>350</v>
       </c>
@@ -12328,7 +12995,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -12337,7 +13004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -12348,16 +13015,16 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>354</v>
       </c>
@@ -12374,10 +13041,10 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -12391,9 +13058,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -12405,10 +13072,10 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -12419,21 +13086,21 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -12442,7 +13109,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -12453,7 +13120,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -12462,9 +13129,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -12473,7 +13140,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -12482,7 +13149,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -12493,10 +13160,10 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -12516,9 +13183,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>410</v>
+        <v>647</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -12536,21 +13203,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -12564,9 +13231,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -12575,24 +13242,24 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
+        <v>509</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
         <v>510</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -12601,7 +13268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>364</v>
       </c>
@@ -12612,9 +13279,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -12629,10 +13296,10 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -12652,7 +13319,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -12666,7 +13333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -12677,16 +13344,16 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -12703,10 +13370,10 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -12717,7 +13384,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -12726,12 +13393,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -12740,21 +13407,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -12765,7 +13432,7 @@
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -12774,21 +13441,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -12799,10 +13466,10 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -12822,9 +13489,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
@@ -12842,7 +13509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -12862,7 +13529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -12876,12 +13543,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -12890,7 +13557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -12907,10 +13574,10 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -12921,21 +13588,21 @@
         <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -12944,12 +13611,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -12958,9 +13625,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -12969,21 +13636,21 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
+        <v>525</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
         <v>526</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
@@ -12992,9 +13659,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -13012,7 +13679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>235</v>
       </c>
@@ -13023,16 +13690,16 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>395</v>
       </c>
@@ -13049,15 +13716,15 @@
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>14</v>
@@ -13066,7 +13733,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>340</v>
       </c>
@@ -13077,7 +13744,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -13086,26 +13753,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -13114,7 +13781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -13125,10 +13792,10 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -13139,12 +13806,12 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
@@ -13153,35 +13820,35 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
+        <v>538</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
@@ -13190,12 +13857,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
@@ -13204,12 +13871,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
@@ -13232,21 +13899,21 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13266,7 +13933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -13277,7 +13944,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -13286,7 +13953,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>40</v>
       </c>
@@ -13297,12 +13964,12 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -13314,21 +13981,21 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>546</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>354</v>
       </c>
@@ -13339,7 +14006,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -13348,7 +14015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -13368,12 +14035,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -13382,7 +14049,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -13393,10 +14060,10 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -13407,7 +14074,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -13416,9 +14083,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -13436,7 +14103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -13447,10 +14114,10 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -13461,10 +14128,10 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -13484,7 +14151,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>40</v>
       </c>
@@ -13498,12 +14165,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -13512,9 +14179,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -13523,7 +14190,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -13532,7 +14199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11683" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E77A71C2-1BD0-44B7-81F0-3498DD245EDC}"/>
+  <xr:revisionPtr revIDLastSave="11700" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B23AE6D-4082-4978-B0A4-55F65993AE3F}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="752">
   <si>
     <t>ROUND</t>
   </si>
@@ -2302,6 +2302,9 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>4-6 6-1 6-1</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2393,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2402,6 +2405,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2628,7 +2633,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2760,7 +2765,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,7 +3327,7 @@
                   <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5115,7 +5120,7 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9122,10 +9127,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9135,7 +9140,7 @@
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9176,6 +9181,40 @@
       </c>
       <c r="F2" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>716</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -9191,8 +9230,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A15 F1:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9503,20 +9542,20 @@
         <v>2025</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9525,7 +9564,7 @@
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C15)</f>
@@ -9533,15 +9572,15 @@
       </c>
       <c r="D16" s="2">
         <f>SUM(D2:D15)</f>
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E16" s="2">
         <f>SUM(E2:E15)</f>
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.39142091152815012</v>
+        <v>0.39037433155080214</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9550,7 +9589,7 @@
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B2:B15)</f>
-        <v>17.428571428571427</v>
+        <v>17.5</v>
       </c>
       <c r="C17" s="2">
         <f>AVERAGE(C2:C15)</f>
@@ -9558,15 +9597,15 @@
       </c>
       <c r="D17" s="2">
         <f>AVERAGE(D2:D15)</f>
-        <v>26.642857142857142</v>
+        <v>26.714285714285715</v>
       </c>
       <c r="E17" s="2">
         <f>AVERAGE(E2:E15)</f>
-        <v>16.214285714285715</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="F17" s="7">
         <f>(D17-E17)/D17</f>
-        <v>0.39142091152815006</v>
+        <v>0.3903743315508022</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11700" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B23AE6D-4082-4978-B0A4-55F65993AE3F}"/>
+  <xr:revisionPtr revIDLastSave="11745" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42E4ACB0-0793-4576-AA88-CF75812C467F}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="2" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <sheet name="2023" sheetId="41" r:id="rId12"/>
     <sheet name="2024" sheetId="45" r:id="rId13"/>
     <sheet name="2025" sheetId="48" r:id="rId14"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId15"/>
-    <sheet name="Wins-Losses" sheetId="49" r:id="rId16"/>
-    <sheet name="Winning Percentile Range" sheetId="50" r:id="rId17"/>
+    <sheet name="Stats" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="755">
   <si>
     <t>ROUND</t>
   </si>
@@ -2305,6 +2303,15 @@
   </si>
   <si>
     <t>4-6 6-1 6-1</t>
+  </si>
+  <si>
+    <t>Belinda Bencic (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>7-6(5) 7-5</t>
+  </si>
+  <si>
+    <t>Moyuka Uchijima (JAPAN)</t>
   </si>
 </sst>
 </file>
@@ -2393,7 +2400,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2405,7 +2412,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -2517,7 +2523,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2538,7 +2544,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
+              <c:f>Stats!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2589,7 +2595,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$15</c:f>
+              <c:f>Stats!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2633,14 +2639,14 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-39ED-4992-B44D-C1041C2BEADD}"/>
+              <c16:uniqueId val="{00000000-2FF2-49BD-B5E4-DB1E6BECD60E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2649,7 +2655,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2670,7 +2676,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
+              <c:f>Stats!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2721,7 +2727,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$15</c:f>
+              <c:f>Stats!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2765,14 +2771,14 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-39ED-4992-B44D-C1041C2BEADD}"/>
+              <c16:uniqueId val="{00000001-2FF2-49BD-B5E4-DB1E6BECD60E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3074,6 +3080,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3183,7 +3194,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3232,7 +3243,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
+              <c:f>Stats!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3283,7 +3294,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$15</c:f>
+              <c:f>Stats!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3327,7 +3338,7 @@
                   <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3335,7 +3346,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CC03-456C-B171-ECF2B0F16C1C}"/>
+              <c16:uniqueId val="{00000001-F834-4613-AB90-50F42E7A1B98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3637,6 +3648,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4726,45 +4742,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2824F874-A641-447E-8230-06BC3D34422D}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A59B18A0-11C4-4B01-A298-42B3B82295BF}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675165" cy="6296766"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2228BF-4A0A-FAF7-5645-A8F1D8E7FEAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D27F0FC-8345-139F-1264-79AC24B0CA87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4777,27 +4779,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659091" cy="6286500"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888F175F-AF86-0D37-17E2-34F076380D23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AADE8F-DA37-7F99-88DD-2BA2F32FCB86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4805,12 +4810,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7273,8 +7278,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9127,17 +9132,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E9" activeCellId="1" sqref="E4 E9:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
@@ -9193,10 +9198,10 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" t="s">
         <v>685</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
@@ -9207,14 +9212,130 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" t="s">
         <v>618</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" t="s">
         <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>752</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>661</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>700</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>673</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>513</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>609</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>750</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>754</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -9542,20 +9663,20 @@
         <v>2025</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9564,7 +9685,7 @@
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C15)</f>
@@ -9572,15 +9693,15 @@
       </c>
       <c r="D16" s="2">
         <f>SUM(D2:D15)</f>
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E16" s="2">
         <f>SUM(E2:E15)</f>
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.39037433155080214</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9589,7 +9710,7 @@
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B2:B15)</f>
-        <v>17.5</v>
+        <v>17.714285714285715</v>
       </c>
       <c r="C17" s="2">
         <f>AVERAGE(C2:C15)</f>
@@ -9597,15 +9718,15 @@
       </c>
       <c r="D17" s="2">
         <f>AVERAGE(D2:D15)</f>
-        <v>26.714285714285715</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2">
         <f>AVERAGE(E2:E15)</f>
-        <v>16.285714285714285</v>
+        <v>16.5</v>
       </c>
       <c r="F17" s="7">
         <f>(D17-E17)/D17</f>
-        <v>0.3903743315508022</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -9629,6 +9750,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11745" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42E4ACB0-0793-4576-AA88-CF75812C467F}"/>
+  <xr:revisionPtr revIDLastSave="11799" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D7D7F90-3C22-4285-A7C9-2F1FED8F22A1}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="2" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="19860" yWindow="11115" windowWidth="19230" windowHeight="10455" firstSheet="2" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="763">
   <si>
     <t>ROUND</t>
   </si>
@@ -2086,9 +2086,6 @@
     <t>7-6(2) 6-0</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>6-4 4-6 6-0</t>
   </si>
   <si>
@@ -2312,6 +2309,33 @@
   </si>
   <si>
     <t>Moyuka Uchijima (JAPAN)</t>
+  </si>
+  <si>
+    <t>Xinyu Wang (CHINA)</t>
+  </si>
+  <si>
+    <t>Alex Eala (PHILIPPINES)</t>
+  </si>
+  <si>
+    <t>7-6(2) 7-5</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Louisa Chirico (USA)</t>
+  </si>
+  <si>
+    <t>Ekaterina Alexandrova</t>
+  </si>
+  <si>
+    <t>6-4, 6-1</t>
+  </si>
+  <si>
+    <t>6-3 3-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Emma Navarro (USA)</t>
   </si>
 </sst>
 </file>
@@ -2639,7 +2663,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,7 +2795,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3338,7 +3362,7 @@
                   <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.27272727272727271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5633,7 +5657,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -6547,7 +6571,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -7517,7 +7541,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -7752,13 +7776,13 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
+        <v>757</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
         <v>679</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7806,7 +7830,7 @@
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7814,7 +7838,7 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -7834,7 +7858,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -7848,13 +7872,13 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -7862,13 +7886,13 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7876,13 +7900,13 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7896,7 +7920,7 @@
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7924,7 +7948,7 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -7944,7 +7968,7 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7958,7 +7982,7 @@
         <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -7978,7 +8002,7 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -7992,13 +8016,13 @@
         <v>40</v>
       </c>
       <c r="D58" t="s">
+        <v>693</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
         <v>694</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -8018,7 +8042,7 @@
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -8032,7 +8056,7 @@
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -8046,7 +8070,7 @@
         <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -8060,7 +8084,7 @@
         <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -8074,7 +8098,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
@@ -8094,7 +8118,7 @@
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -8113,7 +8137,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
@@ -8128,7 +8152,7 @@
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -8156,7 +8180,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
@@ -8190,13 +8214,13 @@
         <v>40</v>
       </c>
       <c r="D75" t="s">
+        <v>705</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
         <v>706</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -8204,13 +8228,13 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -8252,18 +8276,18 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
+        <v>708</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
         <v>709</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B82" t="s">
         <v>19</v>
@@ -8278,7 +8302,7 @@
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -8292,7 +8316,7 @@
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -8308,8 +8332,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8344,7 +8368,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -8388,12 +8412,12 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -8416,13 +8440,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8430,7 +8454,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -8458,7 +8482,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -8478,7 +8502,7 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -8498,7 +8522,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8532,7 +8556,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8540,7 +8564,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -8554,7 +8578,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -8613,7 +8637,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -8622,13 +8646,13 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8636,7 +8660,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -8670,13 +8694,13 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
+        <v>726</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
         <v>727</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8690,7 +8714,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -8724,7 +8748,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -8744,7 +8768,7 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -8758,7 +8782,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -8792,7 +8816,7 @@
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -8806,13 +8830,13 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8826,7 +8850,7 @@
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8840,7 +8864,7 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8854,7 +8878,7 @@
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -8874,7 +8898,7 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8888,7 +8912,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -8908,7 +8932,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -8922,7 +8946,7 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -8956,7 +8980,7 @@
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -8970,7 +8994,7 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
@@ -9018,7 +9042,7 @@
         <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
@@ -9044,7 +9068,7 @@
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9052,7 +9076,7 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -9072,13 +9096,13 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
+        <v>743</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
         <v>744</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9092,7 +9116,7 @@
         <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -9103,7 +9127,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -9112,13 +9136,13 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
+        <v>747</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
         <v>748</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" t="s">
-        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -9132,10 +9156,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" activeCellId="1" sqref="E4 E9:E12"/>
+      <selection activeCell="E22" activeCellId="7" sqref="E2 E5 E7 E13 E15 E17 E19 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9145,7 +9169,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9170,7 +9194,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -9190,7 +9214,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -9199,13 +9223,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9233,7 +9257,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -9259,7 +9283,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9267,7 +9291,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>13</v>
@@ -9320,7 +9344,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -9329,13 +9353,163 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>590</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>754</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>755</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>644</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>758</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>658</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>413</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>617</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>762</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>513</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>759</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>666</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -9352,7 +9526,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9663,20 +9837,20 @@
         <v>2025</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9685,23 +9859,23 @@
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C15)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2">
         <f>SUM(D2:D15)</f>
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E16" s="2">
         <f>SUM(E2:E15)</f>
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.3888888888888889</v>
+        <v>0.390625</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9710,23 +9884,23 @@
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B2:B15)</f>
-        <v>17.714285714285715</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <f>AVERAGE(C2:C15)</f>
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D17" s="2">
         <f>AVERAGE(D2:D15)</f>
-        <v>27</v>
+        <v>27.428571428571427</v>
       </c>
       <c r="E17" s="2">
         <f>AVERAGE(E2:E15)</f>
-        <v>16.5</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="F17" s="7">
         <f>(D17-E17)/D17</f>
-        <v>0.3888888888888889</v>
+        <v>0.39062499999999994</v>
       </c>
     </row>
   </sheetData>
@@ -12256,7 +12430,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -13179,7 +13353,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -14317,7 +14491,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -15110,7 +15284,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11799" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D7D7F90-3C22-4285-A7C9-2F1FED8F22A1}"/>
+  <xr:revisionPtr revIDLastSave="11871" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDFA41BD-EDBA-4955-8961-C452A8E40A6C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19860" yWindow="11115" windowWidth="19230" windowHeight="10455" firstSheet="2" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" firstSheet="3" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="771">
   <si>
     <t>ROUND</t>
   </si>
@@ -2329,13 +2329,37 @@
     <t>Ekaterina Alexandrova</t>
   </si>
   <si>
-    <t>6-4, 6-1</t>
-  </si>
-  <si>
     <t>6-3 3-0 RETIRED</t>
   </si>
   <si>
     <t>Emma Navarro (USA)</t>
+  </si>
+  <si>
+    <t>1-6 6-4 6-3</t>
+  </si>
+  <si>
+    <t>Anastasija Sevastova (LATVIA)</t>
+  </si>
+  <si>
+    <t>Polina Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>5-7 6-0 6-2</t>
+  </si>
+  <si>
+    <t>Caroline Dolehide (USA)</t>
+  </si>
+  <si>
+    <t>Sonay Kartal (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(2)</t>
+  </si>
+  <si>
+    <t>0-6 6-2 3-2 RETIRED</t>
+  </si>
+  <si>
+    <t>7-5 2-6 6-2</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2687,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2795,7 +2819,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3362,7 +3386,7 @@
                   <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.27272727272727271</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4843,10 +4867,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -8332,8 +8352,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9156,20 +9176,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" activeCellId="7" sqref="E2 E5 E7 E13 E15 E17 E19 E22"/>
+      <selection activeCell="E43" activeCellId="12" sqref="E2 E5 E7 E13 E15 E17 E19 E22 E30 E34 E38 E41 E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9453,7 +9473,7 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9461,7 +9481,7 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>13</v>
@@ -9509,7 +9529,179 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>760</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>763</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>728</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>699</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>764</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>766</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>656</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>767</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>755</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>767</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -9526,7 +9718,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9837,20 +10029,20 @@
         <v>2025</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>0.27272727272727271</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9859,7 +10051,7 @@
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C15)</f>
@@ -9867,15 +10059,15 @@
       </c>
       <c r="D16" s="2">
         <f>SUM(D2:D15)</f>
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E16" s="2">
         <f>SUM(E2:E15)</f>
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.390625</v>
+        <v>0.38402061855670105</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9884,7 +10076,7 @@
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B2:B15)</f>
-        <v>18</v>
+        <v>18.357142857142858</v>
       </c>
       <c r="C17" s="2">
         <f>AVERAGE(C2:C15)</f>
@@ -9892,15 +10084,15 @@
       </c>
       <c r="D17" s="2">
         <f>AVERAGE(D2:D15)</f>
-        <v>27.428571428571427</v>
+        <v>27.714285714285715</v>
       </c>
       <c r="E17" s="2">
         <f>AVERAGE(E2:E15)</f>
-        <v>16.714285714285715</v>
+        <v>17.071428571428573</v>
       </c>
       <c r="F17" s="7">
         <f>(D17-E17)/D17</f>
-        <v>0.39062499999999994</v>
+        <v>0.384020618556701</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
+++ b/Tennis/WTA Tour/Jeļena Ostapenko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11871" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDFA41BD-EDBA-4955-8961-C452A8E40A6C}"/>
+  <xr:revisionPtr revIDLastSave="11913" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74AB673E-D90D-4303-8878-FB38DBA44197}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" firstSheet="3" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="17085" yWindow="14610" windowWidth="17280" windowHeight="6960" firstSheet="3" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="23" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="773">
   <si>
     <t>ROUND</t>
   </si>
@@ -2360,6 +2360,12 @@
   </si>
   <si>
     <t>7-5 2-6 6-2</t>
+  </si>
+  <si>
+    <t>6-4 6-7(6) 6-2</t>
+  </si>
+  <si>
+    <t>Renata Zarazúa (MEXICO)</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2454,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2461,6 +2467,8 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2687,7 +2695,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2819,7 +2827,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3394,7 @@
                   <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8353,7 +8361,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:C54"/>
+      <selection activeCell="A60" sqref="A60:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9176,10 +9184,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" activeCellId="12" sqref="E2 E5 E7 E13 E15 E17 E19 E22 E30 E34 E38 E41 E43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E53" activeCellId="16" sqref="E2 E5 E7 E13 E15 E17 E19 E22 E30 E34 E38 E41 E43 E46 E48 E51 E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9572,7 +9580,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="C33" t="s">
         <v>12</v>
@@ -9587,7 +9595,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="C34" t="s">
         <v>11</v>
@@ -9602,7 +9610,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -9622,7 +9630,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>40</v>
       </c>
@@ -9636,7 +9644,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -9650,7 +9658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -9670,7 +9678,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -9684,7 +9692,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -9702,6 +9710,122 @@
       </c>
       <c r="F43" t="s">
         <v>770</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>627</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>772</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>409</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>745</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>615</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>600</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>742</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>746</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>747</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -9718,7 +9842,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10029,20 +10153,20 @@
         <v>2025</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10051,7 +10175,7 @@
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C15)</f>
@@ -10059,15 +10183,15 @@
       </c>
       <c r="D16" s="2">
         <f>SUM(D2:D15)</f>
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E16" s="2">
         <f>SUM(E2:E15)</f>
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.38402061855670105</v>
+        <v>0.37692307692307692</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10076,7 +10200,7 @@
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B2:B15)</f>
-        <v>18.357142857142858</v>
+        <v>18.642857142857142</v>
       </c>
       <c r="C17" s="2">
         <f>AVERAGE(C2:C15)</f>
@@ -10084,15 +10208,15 @@
       </c>
       <c r="D17" s="2">
         <f>AVERAGE(D2:D15)</f>
-        <v>27.714285714285715</v>
+        <v>27.857142857142858</v>
       </c>
       <c r="E17" s="2">
         <f>AVERAGE(E2:E15)</f>
-        <v>17.071428571428573</v>
+        <v>17.357142857142858</v>
       </c>
       <c r="F17" s="7">
         <f>(D17-E17)/D17</f>
-        <v>0.384020618556701</v>
+        <v>0.37692307692307692</v>
       </c>
     </row>
   </sheetData>
